--- a/2021-05-31.xlsx
+++ b/2021-05-31.xlsx
@@ -5,29 +5,29 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-05-31\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-06-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B629D37-B337-479C-98D0-6A10A44A3B15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2E9972-6011-48D9-943D-08519F718BE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfquote_bis_einschl_30.05.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Impfstoff_bis_einschl_30.05.21" sheetId="14" r:id="rId3"/>
+    <sheet name="Impfquote_bis_einschl_31.05.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Impfstoff_bis_einschl_31.05.21" sheetId="14" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_30.05.21!#REF!</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_30.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_31.05.21!#REF!</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_31.05.21!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="84">
   <si>
     <t>Bayern</t>
   </si>
@@ -248,16 +248,13 @@
     <t xml:space="preserve">**Unter "begonnene Impfserie" werden alle Erstimpfungen mit den Impfstoffen von BioNTech, Moderna und AstraZeneca zusammengefasst. Unter "vollständig geimpft" erscheinen alle Zweitimpfungen mit BioNTech, Moderna und AstraZeneca sowie alle Impfungen mit Janssen. </t>
   </si>
   <si>
-    <t>Datenstand: 31.05.2021, 08:00 Uhr</t>
-  </si>
-  <si>
-    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 30.05.21 (Impfquote_bis_einschl_30.05.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 30.05.21 durchgeführt und bis zum 31.05.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 30.05.21 (Impfstoff_bis_einschl_30.05.21)</t>
+    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 31.05.21 (Impfstoff_bis_einschl_31.05.21)</t>
+  </si>
+  <si>
+    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 31.05.21 (Impfquote_bis_einschl_31.05.21)</t>
+  </si>
+  <si>
+    <t>HINWEIS: Für den 31.05.2021 wurden Daten aus den Bereichen der KV Schleswig Holstein und der KV Nordrhein nicht an das RKI übermittelt. Die Daten werden in der nächsten Veröffentlichung berücksichtigt.</t>
   </si>
   <si>
     <t>-</t>
@@ -276,6 +273,12 @@
   </si>
   <si>
     <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=2.308 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
+  </si>
+  <si>
+    <t>Datenstand: 01.06.2021, 14:00 Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 31.05.21 durchgeführt und bis zum 01.06.21, 14:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
   </si>
 </sst>
 </file>
@@ -713,6 +716,19 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -733,9 +749,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -764,19 +777,9 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Komma 2" xfId="4" xr:uid="{B797BBD4-588A-432F-99CA-840AA723A419}"/>
@@ -1128,7 +1131,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,7 +1152,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -1166,7 +1169,7 @@
     </row>
     <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1184,7 +1187,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1248,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,102 +1279,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71" t="s">
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="72" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72" t="s">
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="73" t="s">
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73" t="s">
+      <c r="M2" s="78"/>
+      <c r="N2" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73" t="s">
+      <c r="O2" s="78"/>
+      <c r="P2" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73" t="s">
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="73"/>
+      <c r="S2" s="78"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="28" t="s">
         <v>15</v>
       </c>
@@ -1423,55 +1426,55 @@
         <v>69</v>
       </c>
       <c r="C5" s="32">
-        <v>6571944</v>
+        <v>6644200</v>
       </c>
       <c r="D5" s="32">
-        <v>4634746</v>
+        <v>4664227</v>
       </c>
       <c r="E5" s="32">
-        <v>1937198</v>
+        <v>1979973</v>
       </c>
       <c r="F5" s="33">
-        <v>41.752986425526878</v>
+        <v>42.018571593044356</v>
       </c>
       <c r="G5" s="33">
-        <v>28.953672418853358</v>
+        <v>29.231593055976191</v>
       </c>
       <c r="H5" s="33">
-        <v>76.32904080139177</v>
+        <v>76.561080120412498</v>
       </c>
       <c r="I5" s="33">
-        <v>17.451614780520401</v>
+        <v>17.836961462809338</v>
       </c>
       <c r="J5" s="33">
-        <v>10.328603326816976</v>
+        <v>10.635922733232906</v>
       </c>
       <c r="K5" s="33">
-        <v>36.823182353083091</v>
+        <v>37.420721295479709</v>
       </c>
       <c r="L5" s="32">
-        <v>1691074</v>
+        <v>1706924</v>
       </c>
       <c r="M5" s="32">
-        <v>1522318</v>
+        <v>1524154</v>
       </c>
       <c r="N5" s="32">
-        <v>695160</v>
+        <v>713773</v>
       </c>
       <c r="O5" s="32">
-        <v>864161</v>
+        <v>879028</v>
       </c>
       <c r="P5" s="34">
-        <v>658802</v>
+        <v>665508</v>
       </c>
       <c r="Q5" s="34">
-        <v>755652</v>
+        <v>760741</v>
       </c>
       <c r="R5" s="34">
-        <v>143108</v>
+        <v>149437</v>
       </c>
       <c r="S5" s="34">
-        <v>234793</v>
+        <v>237759</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1482,55 +1485,55 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>7812062</v>
+        <v>7905747</v>
       </c>
       <c r="D6" s="13">
-        <v>5527638</v>
+        <v>5547641</v>
       </c>
       <c r="E6" s="13">
-        <v>2284424</v>
+        <v>2358106</v>
       </c>
       <c r="F6" s="14">
-        <v>42.11618107090451</v>
+        <v>42.26858793437156</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" s="14">
-        <v>17.405484010841512</v>
+        <v>17.966881926853087</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P6" s="17">
-        <v>956216</v>
+        <v>966872</v>
       </c>
       <c r="Q6" s="18">
-        <v>932165</v>
+        <v>934472</v>
       </c>
       <c r="R6" s="17">
-        <v>185135</v>
+        <v>192941</v>
       </c>
       <c r="S6" s="18">
-        <v>255118</v>
+        <v>259198</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1541,55 +1544,55 @@
         <v>2</v>
       </c>
       <c r="C7" s="37">
-        <v>2147543</v>
+        <v>2169909</v>
       </c>
       <c r="D7" s="37">
-        <v>1500535</v>
+        <v>1512572</v>
       </c>
       <c r="E7" s="37">
-        <v>647008</v>
+        <v>657337</v>
       </c>
       <c r="F7" s="38">
-        <v>40.892183684331151</v>
+        <v>41.220212830607842</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="38">
-        <v>17.632091208290195</v>
+        <v>17.913574389472544</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N7" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O7" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P7" s="41">
-        <v>370465</v>
+        <v>374937</v>
       </c>
       <c r="Q7" s="41">
-        <v>144052</v>
+        <v>145011</v>
       </c>
       <c r="R7" s="41">
-        <v>78015</v>
+        <v>81703</v>
       </c>
       <c r="S7" s="41">
-        <v>46094</v>
+        <v>47415</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1600,55 +1603,55 @@
         <v>1</v>
       </c>
       <c r="C8" s="13">
-        <v>1405280</v>
+        <v>1424968</v>
       </c>
       <c r="D8" s="13">
-        <v>955763</v>
+        <v>963300</v>
       </c>
       <c r="E8" s="13">
-        <v>449517</v>
+        <v>461668</v>
       </c>
       <c r="F8" s="14">
-        <v>37.898634081620436</v>
+        <v>38.197496880319662</v>
       </c>
       <c r="G8" s="44">
-        <v>23.081765359810063</v>
+        <v>23.376220759312734</v>
       </c>
       <c r="H8" s="44">
-        <v>67.124068422685383</v>
+        <v>67.431888742193266</v>
       </c>
       <c r="I8" s="44">
-        <v>17.824586530832196</v>
+        <v>18.306407131468305</v>
       </c>
       <c r="J8" s="63">
-        <v>9.6734248825166134</v>
+        <v>10.008939564168145</v>
       </c>
       <c r="K8" s="44">
-        <v>34.368379157678554</v>
+        <v>35.147549341432857</v>
       </c>
       <c r="L8" s="17">
-        <v>244158</v>
+        <v>247237</v>
       </c>
       <c r="M8" s="18">
-        <v>320480</v>
+        <v>321828</v>
       </c>
       <c r="N8" s="17">
-        <v>124229</v>
+        <v>128107</v>
       </c>
       <c r="O8" s="18">
-        <v>217295</v>
+        <v>222246</v>
       </c>
       <c r="P8" s="17">
-        <v>145979</v>
+        <v>147877</v>
       </c>
       <c r="Q8" s="18">
-        <v>237760</v>
+        <v>238972</v>
       </c>
       <c r="R8" s="17">
-        <v>39275</v>
+        <v>41068</v>
       </c>
       <c r="S8" s="18">
-        <v>68531</v>
+        <v>70060</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1659,55 +1662,55 @@
         <v>68</v>
       </c>
       <c r="C9" s="37">
-        <v>445975</v>
+        <v>451601</v>
       </c>
       <c r="D9" s="37">
-        <v>299977</v>
+        <v>302765</v>
       </c>
       <c r="E9" s="37">
-        <v>145998</v>
+        <v>148836</v>
       </c>
       <c r="F9" s="38">
-        <v>44.036423850781418</v>
+        <v>44.44570039430301</v>
       </c>
       <c r="G9" s="64">
-        <v>28.385197814984807</v>
+        <v>28.857513413924625</v>
       </c>
       <c r="H9" s="64">
-        <v>85.646154011407461</v>
+        <v>85.887837416887763</v>
       </c>
       <c r="I9" s="64">
-        <v>21.432409182591947</v>
+        <v>21.849025692819456</v>
       </c>
       <c r="J9" s="64">
-        <v>11.195980671019457</v>
+        <v>11.629913051910272</v>
       </c>
       <c r="K9" s="64">
-        <v>48.646572929310288</v>
+        <v>49.017154151046761</v>
       </c>
       <c r="L9" s="42">
-        <v>91328</v>
+        <v>93188</v>
       </c>
       <c r="M9" s="42">
-        <v>126090</v>
+        <v>126464</v>
       </c>
       <c r="N9" s="42">
-        <v>45833</v>
+        <v>47617</v>
       </c>
       <c r="O9" s="42">
-        <v>80016</v>
+        <v>80569</v>
       </c>
       <c r="P9" s="42">
-        <v>49181</v>
+        <v>49659</v>
       </c>
       <c r="Q9" s="42">
-        <v>33378</v>
+        <v>33454</v>
       </c>
       <c r="R9" s="42">
-        <v>9588</v>
+        <v>9952</v>
       </c>
       <c r="S9" s="42">
-        <v>10561</v>
+        <v>10698</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1718,55 +1721,55 @@
         <v>3</v>
       </c>
       <c r="C10" s="13">
-        <v>1064120</v>
+        <v>1077671</v>
       </c>
       <c r="D10" s="13">
-        <v>750567</v>
+        <v>752106</v>
       </c>
       <c r="E10" s="13">
-        <v>313553</v>
+        <v>325565</v>
       </c>
       <c r="F10" s="14">
-        <v>40.631521507882248</v>
+        <v>40.714834405465844</v>
       </c>
       <c r="G10" s="44">
-        <v>29.731573546583629</v>
+        <v>29.81720392059729</v>
       </c>
       <c r="H10" s="44">
-        <v>75.873266651773477</v>
+        <v>75.949037662107358</v>
       </c>
       <c r="I10" s="44">
-        <v>16.974014929194865</v>
+        <v>17.624277778950688</v>
       </c>
       <c r="J10" s="44">
-        <v>10.784685609143342</v>
+        <v>11.425214960546336</v>
       </c>
       <c r="K10" s="44">
-        <v>37.121346466975126</v>
+        <v>37.803285559980011</v>
       </c>
       <c r="L10" s="18">
-        <v>304985</v>
+        <v>305130</v>
       </c>
       <c r="M10" s="18">
-        <v>227797</v>
+        <v>227816</v>
       </c>
       <c r="N10" s="18">
-        <v>129093</v>
+        <v>136660</v>
       </c>
       <c r="O10" s="18">
-        <v>132571</v>
+        <v>134982</v>
       </c>
       <c r="P10" s="18">
-        <v>115137</v>
+        <v>116202</v>
       </c>
       <c r="Q10" s="18">
-        <v>101647</v>
+        <v>101957</v>
       </c>
       <c r="R10" s="18">
-        <v>23300</v>
+        <v>24784</v>
       </c>
       <c r="S10" s="18">
-        <v>28611</v>
+        <v>29161</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1777,55 +1780,55 @@
         <v>11</v>
       </c>
       <c r="C11" s="37">
-        <v>3678506</v>
+        <v>3715120</v>
       </c>
       <c r="D11" s="37">
-        <v>2686761</v>
+        <v>2700466</v>
       </c>
       <c r="E11" s="37">
-        <v>991745</v>
+        <v>1014654</v>
       </c>
       <c r="F11" s="38">
-        <v>42.727843793335964</v>
+        <v>42.945795855014566</v>
       </c>
       <c r="G11" s="64">
-        <v>29.863809654643791</v>
+        <v>30.095380054582886</v>
       </c>
       <c r="H11" s="64">
-        <v>76.963028722816787</v>
+        <v>77.14471620869071</v>
       </c>
       <c r="I11" s="64">
-        <v>15.771825422068423</v>
+        <v>16.136149667307031</v>
       </c>
       <c r="J11" s="64">
-        <v>9.1247181386167373</v>
+        <v>9.5029395834445314</v>
       </c>
       <c r="K11" s="64">
-        <v>33.471448443627366</v>
+        <v>33.79876552702769</v>
       </c>
       <c r="L11" s="41">
-        <v>957486</v>
+        <v>961957</v>
       </c>
       <c r="M11" s="41">
-        <v>915561</v>
+        <v>916922</v>
       </c>
       <c r="N11" s="41">
-        <v>329588</v>
+        <v>342620</v>
       </c>
       <c r="O11" s="41">
-        <v>462463</v>
+        <v>465616</v>
       </c>
       <c r="P11" s="41">
-        <v>407707</v>
+        <v>413822</v>
       </c>
       <c r="Q11" s="41">
-        <v>405651</v>
+        <v>407409</v>
       </c>
       <c r="R11" s="41">
-        <v>87539</v>
+        <v>91797</v>
       </c>
       <c r="S11" s="41">
-        <v>112136</v>
+        <v>114602</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1836,55 +1839,55 @@
         <v>4</v>
       </c>
       <c r="C12" s="13">
-        <v>978699</v>
+        <v>992173</v>
       </c>
       <c r="D12" s="13">
-        <v>698989</v>
+        <v>702718</v>
       </c>
       <c r="E12" s="13">
-        <v>279710</v>
+        <v>289455</v>
       </c>
       <c r="F12" s="14">
-        <v>43.465734905835198</v>
+        <v>43.697617990495843</v>
       </c>
       <c r="G12" s="44">
-        <v>27.896269980905362</v>
+        <v>28.138235415486541</v>
       </c>
       <c r="H12" s="44">
-        <v>74.088065403140973</v>
+        <v>74.300108882204214</v>
       </c>
       <c r="I12" s="44">
-        <v>17.393407779680601</v>
+        <v>17.999388112214252</v>
       </c>
       <c r="J12" s="44">
-        <v>9.1272550615792643</v>
+        <v>9.5775170970150096</v>
       </c>
       <c r="K12" s="44">
-        <v>33.659180246184512</v>
+        <v>34.571576208315648</v>
       </c>
       <c r="L12" s="18">
-        <v>186363</v>
+        <v>187598</v>
       </c>
       <c r="M12" s="18">
-        <v>231714</v>
+        <v>232256</v>
       </c>
       <c r="N12" s="18">
-        <v>69738</v>
+        <v>73245</v>
       </c>
       <c r="O12" s="18">
-        <v>136026</v>
+        <v>139963</v>
       </c>
       <c r="P12" s="18">
-        <v>111086</v>
+        <v>112431</v>
       </c>
       <c r="Q12" s="18">
-        <v>169747</v>
+        <v>170354</v>
       </c>
       <c r="R12" s="18">
-        <v>27583</v>
+        <v>28877</v>
       </c>
       <c r="S12" s="18">
-        <v>46363</v>
+        <v>47370</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1895,55 +1898,55 @@
         <v>5</v>
       </c>
       <c r="C13" s="37">
-        <v>4684626</v>
+        <v>4735789</v>
       </c>
       <c r="D13" s="37">
-        <v>3416165</v>
+        <v>3432511</v>
       </c>
       <c r="E13" s="37">
-        <v>1268461</v>
+        <v>1303278</v>
       </c>
       <c r="F13" s="38">
-        <v>42.736208730775886</v>
+        <v>42.940697116996482</v>
       </c>
       <c r="G13" s="64">
-        <v>27.700136794667351</v>
+        <v>27.890744523152378</v>
       </c>
       <c r="H13" s="64">
-        <v>79.665137660295969</v>
+        <v>79.903719727035821</v>
       </c>
       <c r="I13" s="64">
-        <v>15.868441384666349</v>
+        <v>16.304001897516116</v>
       </c>
       <c r="J13" s="64">
-        <v>7.6276713555205555</v>
+        <v>8.0596545155706689</v>
       </c>
       <c r="K13" s="64">
-        <v>36.109253118796836</v>
+        <v>36.55360032790982</v>
       </c>
       <c r="L13" s="42">
-        <v>1026383</v>
+        <v>1030533</v>
       </c>
       <c r="M13" s="42">
-        <v>1230725</v>
+        <v>1234157</v>
       </c>
       <c r="N13" s="42">
-        <v>320886</v>
+        <v>339621</v>
       </c>
       <c r="O13" s="42">
-        <v>679423</v>
+        <v>686976</v>
       </c>
       <c r="P13" s="42">
-        <v>547200</v>
+        <v>553878</v>
       </c>
       <c r="Q13" s="42">
-        <v>611795</v>
+        <v>613881</v>
       </c>
       <c r="R13" s="42">
-        <v>112425</v>
+        <v>118230</v>
       </c>
       <c r="S13" s="42">
-        <v>155723</v>
+        <v>158447</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1954,55 +1957,55 @@
         <v>67</v>
       </c>
       <c r="C14" s="13">
-        <v>11199070</v>
+        <v>11354179</v>
       </c>
       <c r="D14" s="13">
-        <v>8134582</v>
+        <v>8177681</v>
       </c>
       <c r="E14" s="13">
-        <v>3064488</v>
+        <v>3176498</v>
       </c>
       <c r="F14" s="14">
-        <v>45.32502274307538</v>
+        <v>45.565165771346997</v>
       </c>
       <c r="G14" s="44">
-        <v>31.608494688383132</v>
+        <v>31.889913613417143</v>
       </c>
       <c r="H14" s="44">
-        <v>80.651771613973366</v>
+        <v>80.785609139043004</v>
       </c>
       <c r="I14" s="44">
-        <v>17.07500007939948</v>
+        <v>17.699107845164441</v>
       </c>
       <c r="J14" s="44">
-        <v>9.0142702856238479</v>
+        <v>9.5344787495875138</v>
       </c>
       <c r="K14" s="44">
-        <v>37.835657161572648</v>
+        <v>38.727356147073053</v>
       </c>
       <c r="L14" s="18">
-        <v>2553831</v>
+        <v>2578645</v>
       </c>
       <c r="M14" s="18">
-        <v>2699271</v>
+        <v>2702596</v>
       </c>
       <c r="N14" s="18">
-        <v>882833</v>
+        <v>940541</v>
       </c>
       <c r="O14" s="18">
-        <v>1539382</v>
+        <v>1580371</v>
       </c>
       <c r="P14" s="18">
-        <v>1532421</v>
+        <v>1543988</v>
       </c>
       <c r="Q14" s="18">
-        <v>1349060</v>
+        <v>1352453</v>
       </c>
       <c r="R14" s="18">
-        <v>282505</v>
+        <v>292048</v>
       </c>
       <c r="S14" s="18">
-        <v>359786</v>
+        <v>363556</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2013,55 +2016,55 @@
         <v>9</v>
       </c>
       <c r="C15" s="37">
-        <v>2439326</v>
+        <v>2470597</v>
       </c>
       <c r="D15" s="37">
-        <v>1667301</v>
+        <v>1680589</v>
       </c>
       <c r="E15" s="37">
-        <v>772025</v>
+        <v>790008</v>
       </c>
       <c r="F15" s="38">
-        <v>40.726441246898133</v>
+        <v>41.051021482433761</v>
       </c>
       <c r="G15" s="64">
-        <v>26.215637304440502</v>
+        <v>26.574588724507546</v>
       </c>
       <c r="H15" s="64">
-        <v>75.827089818857999</v>
+        <v>76.068445354449153</v>
       </c>
       <c r="I15" s="64">
-        <v>18.857921157389416</v>
+        <v>19.297184129667947</v>
       </c>
       <c r="J15" s="64">
-        <v>10.525732675071653</v>
+        <v>10.935282439544297</v>
       </c>
       <c r="K15" s="64">
-        <v>39.033491423437724</v>
+        <v>39.544700499341872</v>
       </c>
       <c r="L15" s="42">
-        <v>512041</v>
+        <v>519195</v>
       </c>
       <c r="M15" s="42">
-        <v>594185</v>
+        <v>595916</v>
       </c>
       <c r="N15" s="42">
-        <v>252467</v>
+        <v>262193</v>
       </c>
       <c r="O15" s="42">
-        <v>376351</v>
+        <v>380742</v>
       </c>
       <c r="P15" s="42">
-        <v>247512</v>
+        <v>250758</v>
       </c>
       <c r="Q15" s="42">
-        <v>313143</v>
+        <v>314300</v>
       </c>
       <c r="R15" s="42">
-        <v>52498</v>
+        <v>54638</v>
       </c>
       <c r="S15" s="42">
-        <v>90714</v>
+        <v>92440</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2072,55 +2075,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="13">
-        <v>655459</v>
+        <v>663967</v>
       </c>
       <c r="D16" s="13">
-        <v>452827</v>
+        <v>455104</v>
       </c>
       <c r="E16" s="13">
-        <v>202632</v>
+        <v>208863</v>
       </c>
       <c r="F16" s="14">
-        <v>45.884381899852769</v>
+        <v>46.115107403380527</v>
       </c>
       <c r="G16" s="44">
-        <v>30.527251732790695</v>
+        <v>30.777137605809884</v>
       </c>
       <c r="H16" s="44">
-        <v>78.400156673963366</v>
+        <v>78.590313379514242</v>
       </c>
       <c r="I16" s="44">
-        <v>20.532441910776004</v>
+        <v>21.16382118722812</v>
       </c>
       <c r="J16" s="44">
-        <v>9.0877897557235041</v>
+        <v>9.6339582220657434</v>
       </c>
       <c r="K16" s="44">
-        <v>44.764531036290869</v>
+        <v>45.576329596532958</v>
       </c>
       <c r="L16" s="18">
-        <v>132821</v>
+        <v>133558</v>
       </c>
       <c r="M16" s="18">
-        <v>178240</v>
+        <v>178595</v>
       </c>
       <c r="N16" s="18">
-        <v>45069</v>
+        <v>47958</v>
       </c>
       <c r="O16" s="18">
-        <v>122542</v>
+        <v>124882</v>
       </c>
       <c r="P16" s="18">
-        <v>71805</v>
+        <v>72743</v>
       </c>
       <c r="Q16" s="18">
-        <v>69960</v>
+        <v>70207</v>
       </c>
       <c r="R16" s="18">
-        <v>15847</v>
+        <v>16619</v>
       </c>
       <c r="S16" s="18">
-        <v>19174</v>
+        <v>19404</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2131,55 +2134,55 @@
         <v>6</v>
       </c>
       <c r="C17" s="37">
-        <v>2375819</v>
+        <v>2400470</v>
       </c>
       <c r="D17" s="37">
-        <v>1523511</v>
+        <v>1535247</v>
       </c>
       <c r="E17" s="37">
-        <v>852308</v>
+        <v>865223</v>
       </c>
       <c r="F17" s="38">
-        <v>37.414583748263439</v>
+        <v>37.702797981616278</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I17" s="64">
-        <v>20.931092092748205</v>
+        <v>21.248260363347381</v>
       </c>
       <c r="J17" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K17" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L17" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M17" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N17" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O17" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P17" s="41">
-        <v>141743</v>
+        <v>143447</v>
       </c>
       <c r="Q17" s="41">
-        <v>316797</v>
+        <v>318168</v>
       </c>
       <c r="R17" s="41">
-        <v>47096</v>
+        <v>49090</v>
       </c>
       <c r="S17" s="41">
-        <v>119340</v>
+        <v>121773</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2190,55 +2193,55 @@
         <v>7</v>
       </c>
       <c r="C18" s="13">
-        <v>1258550</v>
+        <v>1275941</v>
       </c>
       <c r="D18" s="13">
-        <v>882306</v>
+        <v>888299</v>
       </c>
       <c r="E18" s="13">
-        <v>376244</v>
+        <v>387642</v>
       </c>
       <c r="F18" s="14">
-        <v>40.200165665656087</v>
+        <v>40.473222397486403</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18" s="44">
-        <v>17.14265927094354</v>
+        <v>17.661981918933179</v>
       </c>
       <c r="J18" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L18" s="63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M18" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N18" s="63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O18" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P18" s="17">
-        <v>92975</v>
+        <v>94287</v>
       </c>
       <c r="Q18" s="18">
-        <v>187402</v>
+        <v>188215</v>
       </c>
       <c r="R18" s="17">
-        <v>21401</v>
+        <v>22682</v>
       </c>
       <c r="S18" s="18">
-        <v>51300</v>
+        <v>52451</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2249,43 +2252,43 @@
         <v>8</v>
       </c>
       <c r="C19" s="37">
-        <v>1804535</v>
+        <v>1820373</v>
       </c>
       <c r="D19" s="37">
-        <v>1230213</v>
+        <v>1240094</v>
       </c>
       <c r="E19" s="37">
-        <v>574322</v>
+        <v>580279</v>
       </c>
       <c r="F19" s="38">
-        <v>42.36601828035456</v>
+        <v>42.706299700424239</v>
       </c>
       <c r="G19" s="64">
-        <v>27.711481675336113</v>
+        <v>28.107425218029181</v>
       </c>
       <c r="H19" s="64">
-        <v>76.781964182540108</v>
+        <v>76.991508662594171</v>
       </c>
       <c r="I19" s="64">
-        <v>19.778474419315835</v>
+        <v>19.98362130924146</v>
       </c>
       <c r="J19" s="64">
-        <v>11.187516387172293</v>
+        <v>11.331576202928922</v>
       </c>
       <c r="K19" s="64">
-        <v>39.954147008657401</v>
+        <v>40.302772745148012</v>
       </c>
       <c r="L19" s="42">
-        <v>364234</v>
+        <v>372298</v>
       </c>
       <c r="M19" s="42">
-        <v>399447</v>
+        <v>401264</v>
       </c>
       <c r="N19" s="42">
-        <v>193619</v>
+        <v>196553</v>
       </c>
       <c r="O19" s="42">
-        <v>276084</v>
+        <v>279107</v>
       </c>
       <c r="P19" s="42">
         <v>200153</v>
@@ -2308,55 +2311,55 @@
         <v>70</v>
       </c>
       <c r="C20" s="13">
-        <v>1275823</v>
+        <v>1289515</v>
       </c>
       <c r="D20" s="13">
-        <v>859619</v>
+        <v>868818</v>
       </c>
       <c r="E20" s="13">
-        <v>416204</v>
+        <v>420697</v>
       </c>
       <c r="F20" s="14">
-        <v>40.293796973625867</v>
+        <v>40.724991070499463</v>
       </c>
       <c r="G20" s="44">
-        <v>25.661155787705948</v>
+        <v>26.113283561024776</v>
       </c>
       <c r="H20" s="44">
-        <v>68.39741202755539</v>
+        <v>68.788400670266242</v>
       </c>
       <c r="I20" s="44">
-        <v>19.509154027087558</v>
+        <v>19.719758992546094</v>
       </c>
       <c r="J20" s="44">
-        <v>10.688477335161897</v>
+        <v>10.844223698822885</v>
       </c>
       <c r="K20" s="44">
-        <v>36.450244778604052</v>
+        <v>36.76621179099083</v>
       </c>
       <c r="L20" s="18">
-        <v>281952</v>
+        <v>287442</v>
       </c>
       <c r="M20" s="18">
-        <v>330400</v>
+        <v>332618</v>
       </c>
       <c r="N20" s="18">
-        <v>125339</v>
+        <v>126547</v>
       </c>
       <c r="O20" s="18">
-        <v>210795</v>
+        <v>212008</v>
       </c>
       <c r="P20" s="18">
-        <v>78054</v>
+        <v>78907</v>
       </c>
       <c r="Q20" s="18">
-        <v>169213</v>
+        <v>169851</v>
       </c>
       <c r="R20" s="18">
-        <v>24612</v>
+        <v>25589</v>
       </c>
       <c r="S20" s="18">
-        <v>55458</v>
+        <v>56553</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2365,55 +2368,55 @@
         <v>46</v>
       </c>
       <c r="C21" s="37">
-        <v>143392</v>
+        <v>148864</v>
       </c>
       <c r="D21" s="37">
-        <v>104177</v>
+        <v>106976</v>
       </c>
       <c r="E21" s="37">
-        <v>39215</v>
+        <v>41888</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" s="65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H21" s="65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I21" s="65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J21" s="65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K21" s="65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L21" s="41">
-        <v>96749</v>
+        <v>99444</v>
       </c>
       <c r="M21" s="41">
-        <v>7428</v>
+        <v>7532</v>
       </c>
       <c r="N21" s="41">
-        <v>37007</v>
+        <v>39494</v>
       </c>
       <c r="O21" s="41">
-        <v>2208</v>
+        <v>2394</v>
       </c>
       <c r="P21" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R21" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S21" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2422,55 +2425,55 @@
         <v>15</v>
       </c>
       <c r="C22" s="21">
-        <v>49940729</v>
+        <v>50541084</v>
       </c>
       <c r="D22" s="21">
-        <v>35325677</v>
+        <v>35531114</v>
       </c>
       <c r="E22" s="21">
-        <v>14615052</v>
+        <v>15009970</v>
       </c>
       <c r="F22" s="22">
-        <v>42.475741285476587</v>
+        <v>42.722759590673242</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I22" s="22">
-        <v>17.573199449957809</v>
+        <v>18.048050499436005</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P22" s="25">
-        <v>5726436</v>
+        <v>5785469</v>
       </c>
       <c r="Q22" s="25">
-        <v>6063766</v>
+        <v>6085789</v>
       </c>
       <c r="R22" s="25">
-        <v>1184159</v>
+        <v>1233687</v>
       </c>
       <c r="S22" s="25">
-        <v>1724068</v>
+        <v>1751253</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2498,27 +2501,27 @@
       <c r="T25" s="59"/>
     </row>
     <row r="26" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="70"/>
-      <c r="T26" s="70"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B27" s="61" t="s">
@@ -2569,31 +2572,36 @@
       <c r="U28" s="61"/>
     </row>
     <row r="29" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="70"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2625,7 +2633,7 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,118 +2643,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="75" t="s">
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="77"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="81"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="74" t="s">
+      <c r="A2" s="83"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75" t="s">
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="74" t="s">
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="75" t="s">
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="77"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="81"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="74" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74" t="s">
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="77"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="81"/>
       <c r="L3" s="48"/>
-      <c r="M3" s="74" t="s">
+      <c r="M3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="74" t="s">
+      <c r="N3" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74" t="s">
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="75" t="s">
+      <c r="S3" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="74" t="s">
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="88" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2759,7 +2767,7 @@
       <c r="F4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="74"/>
+      <c r="G4" s="88"/>
       <c r="H4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2775,7 +2783,7 @@
       <c r="L4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="74"/>
+      <c r="M4" s="88"/>
       <c r="N4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2788,7 +2796,7 @@
       <c r="Q4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="74"/>
+      <c r="R4" s="88"/>
       <c r="S4" s="49" t="s">
         <v>15</v>
       </c>
@@ -2804,7 +2812,7 @@
       <c r="W4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="74"/>
+      <c r="X4" s="88"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
@@ -2814,70 +2822,70 @@
         <v>69</v>
       </c>
       <c r="C5" s="45">
-        <v>3213392</v>
+        <v>3231078</v>
       </c>
       <c r="D5" s="45">
-        <v>2034809</v>
+        <v>2045709</v>
       </c>
       <c r="E5" s="45">
-        <v>384891</v>
+        <v>391101</v>
       </c>
       <c r="F5" s="45">
-        <v>793692</v>
+        <v>794268</v>
       </c>
       <c r="G5" s="45">
-        <v>13388</v>
+        <v>17327</v>
       </c>
       <c r="H5" s="45">
-        <v>1559321</v>
+        <v>1592801</v>
       </c>
       <c r="I5" s="45">
-        <v>1270090</v>
+        <v>1295833</v>
       </c>
       <c r="J5" s="45">
-        <v>141958</v>
+        <v>145536</v>
       </c>
       <c r="K5" s="45">
-        <v>108550</v>
+        <v>111839</v>
       </c>
       <c r="L5" s="45">
-        <v>38723</v>
+        <v>39593</v>
       </c>
       <c r="M5" s="45">
-        <v>30497</v>
+        <v>33257</v>
       </c>
       <c r="N5" s="45">
-        <v>1421354</v>
+        <v>1433149</v>
       </c>
       <c r="O5" s="45">
-        <v>1113700</v>
+        <v>1121024</v>
       </c>
       <c r="P5" s="45">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="Q5" s="45">
-        <v>307203</v>
+        <v>311668</v>
       </c>
       <c r="R5" s="45">
-        <v>1076</v>
+        <v>11795</v>
       </c>
       <c r="S5" s="45">
-        <v>377877</v>
+        <v>387172</v>
       </c>
       <c r="T5" s="45">
-        <v>340126</v>
+        <v>344306</v>
       </c>
       <c r="U5" s="45">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V5" s="45">
-        <v>11231</v>
+        <v>11635</v>
       </c>
       <c r="W5" s="45">
-        <v>26368</v>
+        <v>31078</v>
       </c>
       <c r="X5" s="45">
-        <v>883</v>
+        <v>9295</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -2888,70 +2896,70 @@
         <v>0</v>
       </c>
       <c r="C6" s="46">
-        <v>3639030</v>
+        <v>3646070</v>
       </c>
       <c r="D6" s="46">
-        <v>2515179</v>
+        <v>2519822</v>
       </c>
       <c r="E6" s="46">
-        <v>389503</v>
+        <v>390885</v>
       </c>
       <c r="F6" s="46">
-        <v>734348</v>
+        <v>735363</v>
       </c>
       <c r="G6" s="46">
-        <v>4958</v>
+        <v>7040</v>
       </c>
       <c r="H6" s="46">
-        <v>1844172</v>
+        <v>1905968</v>
       </c>
       <c r="I6" s="46">
-        <v>1575908</v>
+        <v>1617073</v>
       </c>
       <c r="J6" s="46">
-        <v>165230</v>
+        <v>178938</v>
       </c>
       <c r="K6" s="46">
-        <v>76455</v>
+        <v>81853</v>
       </c>
       <c r="L6" s="46">
-        <v>26579</v>
+        <v>28104</v>
       </c>
       <c r="M6" s="46">
-        <v>33131</v>
+        <v>61796</v>
       </c>
       <c r="N6" s="46">
-        <v>1888608</v>
+        <v>1901571</v>
       </c>
       <c r="O6" s="46">
-        <v>1371626</v>
+        <v>1380947</v>
       </c>
       <c r="P6" s="46">
         <v>819</v>
       </c>
       <c r="Q6" s="46">
-        <v>516163</v>
+        <v>519805</v>
       </c>
       <c r="R6" s="46">
-        <v>1273</v>
+        <v>12963</v>
       </c>
       <c r="S6" s="46">
-        <v>440252</v>
+        <v>452138</v>
       </c>
       <c r="T6" s="46">
-        <v>373002</v>
+        <v>378831</v>
       </c>
       <c r="U6" s="46">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="V6" s="46">
-        <v>29536</v>
+        <v>30555</v>
       </c>
       <c r="W6" s="46">
-        <v>36705</v>
+        <v>41740</v>
       </c>
       <c r="X6" s="46">
-        <v>1872</v>
+        <v>11886</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -2962,70 +2970,70 @@
         <v>2</v>
       </c>
       <c r="C7" s="45">
-        <v>984308</v>
+        <v>990914</v>
       </c>
       <c r="D7" s="45">
-        <v>647645</v>
+        <v>652128</v>
       </c>
       <c r="E7" s="45">
-        <v>150646</v>
+        <v>152769</v>
       </c>
       <c r="F7" s="45">
         <v>186017</v>
       </c>
       <c r="G7" s="45">
-        <v>8032</v>
+        <v>6606</v>
       </c>
       <c r="H7" s="45">
-        <v>522891</v>
+        <v>528211</v>
       </c>
       <c r="I7" s="45">
-        <v>452946</v>
+        <v>457494</v>
       </c>
       <c r="J7" s="45">
-        <v>59492</v>
+        <v>60105</v>
       </c>
       <c r="K7" s="45">
-        <v>3969</v>
+        <v>4109</v>
       </c>
       <c r="L7" s="45">
-        <v>6484</v>
+        <v>6503</v>
       </c>
       <c r="M7" s="45">
-        <v>5436</v>
+        <v>5320</v>
       </c>
       <c r="N7" s="45">
-        <v>516227</v>
+        <v>521658</v>
       </c>
       <c r="O7" s="45">
-        <v>370069</v>
+        <v>373044</v>
       </c>
       <c r="P7" s="45">
-        <v>317</v>
+        <v>370</v>
       </c>
       <c r="Q7" s="45">
-        <v>145841</v>
+        <v>148244</v>
       </c>
       <c r="R7" s="45">
-        <v>180</v>
+        <v>5431</v>
       </c>
       <c r="S7" s="45">
-        <v>124117</v>
+        <v>129126</v>
       </c>
       <c r="T7" s="45">
-        <v>102733</v>
+        <v>104792</v>
       </c>
       <c r="U7" s="45">
         <v>116</v>
       </c>
       <c r="V7" s="45">
-        <v>12487</v>
+        <v>13254</v>
       </c>
       <c r="W7" s="45">
-        <v>8781</v>
+        <v>10964</v>
       </c>
       <c r="X7" s="45">
-        <v>221</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -3036,70 +3044,70 @@
         <v>1</v>
       </c>
       <c r="C8" s="46">
-        <v>564638</v>
+        <v>569065</v>
       </c>
       <c r="D8" s="46">
-        <v>385893</v>
+        <v>388324</v>
       </c>
       <c r="E8" s="46">
-        <v>71304</v>
+        <v>73249</v>
       </c>
       <c r="F8" s="46">
-        <v>107441</v>
+        <v>107492</v>
       </c>
       <c r="G8" s="46">
-        <v>0</v>
+        <v>3834</v>
       </c>
       <c r="H8" s="46">
-        <v>341525</v>
+        <v>350354</v>
       </c>
       <c r="I8" s="46">
-        <v>269154</v>
+        <v>277705</v>
       </c>
       <c r="J8" s="46">
-        <v>48339</v>
+        <v>48377</v>
       </c>
       <c r="K8" s="46">
-        <v>19851</v>
+        <v>20016</v>
       </c>
       <c r="L8" s="46">
-        <v>4181</v>
+        <v>4256</v>
       </c>
       <c r="M8" s="46">
-        <v>200</v>
+        <v>7535</v>
       </c>
       <c r="N8" s="46">
-        <v>391125</v>
+        <v>394235</v>
       </c>
       <c r="O8" s="46">
-        <v>265873</v>
+        <v>267155</v>
       </c>
       <c r="P8" s="46">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="Q8" s="46">
-        <v>124538</v>
+        <v>126365</v>
       </c>
       <c r="R8" s="46">
-        <v>113</v>
+        <v>3110</v>
       </c>
       <c r="S8" s="46">
-        <v>107992</v>
+        <v>111314</v>
       </c>
       <c r="T8" s="46">
-        <v>92190</v>
+        <v>93131</v>
       </c>
       <c r="U8" s="46">
         <v>309</v>
       </c>
       <c r="V8" s="46">
-        <v>7419</v>
+        <v>8004</v>
       </c>
       <c r="W8" s="46">
-        <v>8074</v>
+        <v>9870</v>
       </c>
       <c r="X8" s="46">
-        <v>47</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -3110,70 +3118,70 @@
         <v>68</v>
       </c>
       <c r="C9" s="45">
-        <v>217418</v>
+        <v>219652</v>
       </c>
       <c r="D9" s="45">
-        <v>131466</v>
+        <v>132693</v>
       </c>
       <c r="E9" s="45">
-        <v>17842</v>
+        <v>18272</v>
       </c>
       <c r="F9" s="45">
-        <v>68110</v>
+        <v>68687</v>
       </c>
       <c r="G9" s="45">
-        <v>1983</v>
+        <v>2235</v>
       </c>
       <c r="H9" s="45">
-        <v>125849</v>
+        <v>128186</v>
       </c>
       <c r="I9" s="45">
-        <v>104331</v>
+        <v>105642</v>
       </c>
       <c r="J9" s="45">
-        <v>10318</v>
+        <v>10680</v>
       </c>
       <c r="K9" s="45">
-        <v>5142</v>
+        <v>5613</v>
       </c>
       <c r="L9" s="45">
-        <v>6058</v>
+        <v>6251</v>
       </c>
       <c r="M9" s="45">
-        <v>970</v>
+        <v>2340</v>
       </c>
       <c r="N9" s="45">
-        <v>82559</v>
+        <v>83113</v>
       </c>
       <c r="O9" s="45">
-        <v>62846</v>
+        <v>63040</v>
       </c>
       <c r="P9" s="45">
         <v>14</v>
       </c>
       <c r="Q9" s="45">
-        <v>19699</v>
+        <v>20059</v>
       </c>
       <c r="R9" s="45">
-        <v>98</v>
+        <v>554</v>
       </c>
       <c r="S9" s="45">
-        <v>20149</v>
+        <v>20650</v>
       </c>
       <c r="T9" s="45">
-        <v>17414</v>
+        <v>17635</v>
       </c>
       <c r="U9" s="45">
         <v>26</v>
       </c>
       <c r="V9" s="45">
-        <v>479</v>
+        <v>525</v>
       </c>
       <c r="W9" s="45">
-        <v>2230</v>
+        <v>2464</v>
       </c>
       <c r="X9" s="45">
-        <v>56</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -3184,70 +3192,70 @@
         <v>3</v>
       </c>
       <c r="C10" s="46">
-        <v>532782</v>
+        <v>532946</v>
       </c>
       <c r="D10" s="46">
-        <v>337140</v>
+        <v>337213</v>
       </c>
       <c r="E10" s="46">
-        <v>75110</v>
+        <v>75196</v>
       </c>
       <c r="F10" s="46">
-        <v>120532</v>
+        <v>120537</v>
       </c>
       <c r="G10" s="46">
-        <v>691</v>
+        <v>35</v>
       </c>
       <c r="H10" s="46">
-        <v>261664</v>
+        <v>271642</v>
       </c>
       <c r="I10" s="46">
-        <v>234207</v>
+        <v>242575</v>
       </c>
       <c r="J10" s="46">
-        <v>21660</v>
+        <v>22981</v>
       </c>
       <c r="K10" s="46">
-        <v>4019</v>
+        <v>4308</v>
       </c>
       <c r="L10" s="46">
         <v>1778</v>
       </c>
       <c r="M10" s="46">
-        <v>9149</v>
+        <v>9276</v>
       </c>
       <c r="N10" s="46">
-        <v>217785</v>
+        <v>219160</v>
       </c>
       <c r="O10" s="46">
-        <v>165346</v>
+        <v>166142</v>
       </c>
       <c r="P10" s="46">
-        <v>3982</v>
+        <v>4021</v>
       </c>
       <c r="Q10" s="46">
-        <v>48457</v>
+        <v>48997</v>
       </c>
       <c r="R10" s="46">
-        <v>198</v>
+        <v>1375</v>
       </c>
       <c r="S10" s="46">
-        <v>51889</v>
+        <v>53923</v>
       </c>
       <c r="T10" s="46">
-        <v>44114</v>
+        <v>44948</v>
       </c>
       <c r="U10" s="46">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="V10" s="46">
-        <v>2058</v>
+        <v>2148</v>
       </c>
       <c r="W10" s="46">
-        <v>5646</v>
+        <v>6750</v>
       </c>
       <c r="X10" s="46">
-        <v>242</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -3258,70 +3266,70 @@
         <v>11</v>
       </c>
       <c r="C11" s="45">
-        <v>1873047</v>
+        <v>1878879</v>
       </c>
       <c r="D11" s="45">
-        <v>1181547</v>
+        <v>1187041</v>
       </c>
       <c r="E11" s="45">
-        <v>223151</v>
+        <v>223333</v>
       </c>
       <c r="F11" s="45">
-        <v>468349</v>
+        <v>468505</v>
       </c>
       <c r="G11" s="45">
-        <v>9314</v>
+        <v>5828</v>
       </c>
       <c r="H11" s="45">
-        <v>792051</v>
+        <v>808236</v>
       </c>
       <c r="I11" s="45">
-        <v>654152</v>
+        <v>666298</v>
       </c>
       <c r="J11" s="45">
-        <v>58311</v>
+        <v>59752</v>
       </c>
       <c r="K11" s="45">
-        <v>75600</v>
+        <v>77280</v>
       </c>
       <c r="L11" s="45">
-        <v>3988</v>
+        <v>4906</v>
       </c>
       <c r="M11" s="45">
-        <v>14821</v>
+        <v>16159</v>
       </c>
       <c r="N11" s="45">
-        <v>813714</v>
+        <v>821587</v>
       </c>
       <c r="O11" s="45">
-        <v>613108</v>
+        <v>618329</v>
       </c>
       <c r="P11" s="45">
         <v>209</v>
       </c>
       <c r="Q11" s="45">
-        <v>200397</v>
+        <v>203049</v>
       </c>
       <c r="R11" s="45">
-        <v>952</v>
+        <v>7873</v>
       </c>
       <c r="S11" s="45">
-        <v>199694</v>
+        <v>206418</v>
       </c>
       <c r="T11" s="45">
-        <v>171104</v>
+        <v>174536</v>
       </c>
       <c r="U11" s="45">
         <v>161</v>
       </c>
       <c r="V11" s="45">
-        <v>10480</v>
+        <v>11060</v>
       </c>
       <c r="W11" s="45">
-        <v>17949</v>
+        <v>20661</v>
       </c>
       <c r="X11" s="45">
-        <v>1071</v>
+        <v>6724</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -3332,70 +3340,70 @@
         <v>4</v>
       </c>
       <c r="C12" s="46">
-        <v>418078</v>
+        <v>419855</v>
       </c>
       <c r="D12" s="46">
-        <v>295006</v>
+        <v>296026</v>
       </c>
       <c r="E12" s="46">
-        <v>56926</v>
+        <v>57678</v>
       </c>
       <c r="F12" s="46">
-        <v>66146</v>
+        <v>66151</v>
       </c>
       <c r="G12" s="46">
-        <v>128</v>
+        <v>1708</v>
       </c>
       <c r="H12" s="46">
-        <v>205764</v>
+        <v>213208</v>
       </c>
       <c r="I12" s="46">
-        <v>178246</v>
+        <v>185037</v>
       </c>
       <c r="J12" s="46">
-        <v>19509</v>
+        <v>19827</v>
       </c>
       <c r="K12" s="46">
-        <v>3149</v>
+        <v>3344</v>
       </c>
       <c r="L12" s="46">
-        <v>4860</v>
+        <v>5000</v>
       </c>
       <c r="M12" s="46">
-        <v>438</v>
+        <v>6774</v>
       </c>
       <c r="N12" s="46">
-        <v>280911</v>
+        <v>282863</v>
       </c>
       <c r="O12" s="46">
-        <v>209714</v>
+        <v>210856</v>
       </c>
       <c r="P12" s="46">
         <v>195</v>
       </c>
       <c r="Q12" s="46">
-        <v>71002</v>
+        <v>71812</v>
       </c>
       <c r="R12" s="46">
-        <v>63</v>
+        <v>1952</v>
       </c>
       <c r="S12" s="46">
-        <v>73946</v>
+        <v>76247</v>
       </c>
       <c r="T12" s="46">
-        <v>64756</v>
+        <v>65628</v>
       </c>
       <c r="U12" s="46">
         <v>141</v>
       </c>
       <c r="V12" s="46">
-        <v>5904</v>
+        <v>6522</v>
       </c>
       <c r="W12" s="46">
-        <v>3145</v>
+        <v>3956</v>
       </c>
       <c r="X12" s="46">
-        <v>139</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -3406,70 +3414,70 @@
         <v>5</v>
       </c>
       <c r="C13" s="45">
-        <v>2257108</v>
+        <v>2264690</v>
       </c>
       <c r="D13" s="45">
-        <v>1361613</v>
+        <v>1365369</v>
       </c>
       <c r="E13" s="45">
-        <v>216569</v>
+        <v>217046</v>
       </c>
       <c r="F13" s="45">
-        <v>678926</v>
+        <v>682275</v>
       </c>
       <c r="G13" s="45">
-        <v>3407</v>
+        <v>5860</v>
       </c>
       <c r="H13" s="45">
-        <v>1000309</v>
+        <v>1026597</v>
       </c>
       <c r="I13" s="45">
-        <v>834601</v>
+        <v>855262</v>
       </c>
       <c r="J13" s="45">
-        <v>102847</v>
+        <v>106553</v>
       </c>
       <c r="K13" s="45">
-        <v>30848</v>
+        <v>32263</v>
       </c>
       <c r="L13" s="45">
-        <v>32013</v>
+        <v>32519</v>
       </c>
       <c r="M13" s="45">
-        <v>2459</v>
+        <v>24368</v>
       </c>
       <c r="N13" s="45">
-        <v>1159057</v>
+        <v>1167821</v>
       </c>
       <c r="O13" s="45">
-        <v>827899</v>
+        <v>832768</v>
       </c>
       <c r="P13" s="45">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="Q13" s="45">
-        <v>330506</v>
+        <v>334384</v>
       </c>
       <c r="R13" s="45">
-        <v>3185</v>
+        <v>8764</v>
       </c>
       <c r="S13" s="45">
-        <v>268152</v>
+        <v>276681</v>
       </c>
       <c r="T13" s="45">
-        <v>219680</v>
+        <v>222808</v>
       </c>
       <c r="U13" s="45">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="V13" s="45">
-        <v>16890</v>
+        <v>17388</v>
       </c>
       <c r="W13" s="45">
-        <v>30996</v>
+        <v>35886</v>
       </c>
       <c r="X13" s="45">
-        <v>1143</v>
+        <v>8529</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -3480,70 +3488,70 @@
         <v>67</v>
       </c>
       <c r="C14" s="46">
-        <v>5253103</v>
+        <v>5281242</v>
       </c>
       <c r="D14" s="46">
-        <v>3486524</v>
+        <v>3504195</v>
       </c>
       <c r="E14" s="46">
-        <v>611137</v>
+        <v>620615</v>
       </c>
       <c r="F14" s="46">
-        <v>1155442</v>
+        <v>1156432</v>
       </c>
       <c r="G14" s="46">
-        <v>23227</v>
+        <v>4490</v>
       </c>
       <c r="H14" s="46">
-        <v>2422216</v>
+        <v>2520913</v>
       </c>
       <c r="I14" s="46">
-        <v>2181516</v>
+        <v>2265342</v>
       </c>
       <c r="J14" s="46">
-        <v>157144</v>
+        <v>163274</v>
       </c>
       <c r="K14" s="46">
-        <v>65394</v>
+        <v>72629</v>
       </c>
       <c r="L14" s="46">
-        <v>18162</v>
+        <v>19668</v>
       </c>
       <c r="M14" s="46">
-        <v>42471</v>
+        <v>49699</v>
       </c>
       <c r="N14" s="46">
-        <v>2881479</v>
+        <v>2896439</v>
       </c>
       <c r="O14" s="46">
-        <v>1974501</v>
+        <v>1982119</v>
       </c>
       <c r="P14" s="46">
-        <v>7231</v>
+        <v>7237</v>
       </c>
       <c r="Q14" s="46">
-        <v>899747</v>
+        <v>907083</v>
       </c>
       <c r="R14" s="46">
-        <v>3910</v>
+        <v>14960</v>
       </c>
       <c r="S14" s="46">
-        <v>642272</v>
+        <v>655585</v>
       </c>
       <c r="T14" s="46">
-        <v>527153</v>
+        <v>532126</v>
       </c>
       <c r="U14" s="46">
-        <v>3556</v>
+        <v>3707</v>
       </c>
       <c r="V14" s="46">
-        <v>42693</v>
+        <v>43751</v>
       </c>
       <c r="W14" s="46">
-        <v>68870</v>
+        <v>76001</v>
       </c>
       <c r="X14" s="46">
-        <v>2446</v>
+        <v>13313</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -3554,70 +3562,70 @@
         <v>9</v>
       </c>
       <c r="C15" s="45">
-        <v>1106226</v>
+        <v>1115111</v>
       </c>
       <c r="D15" s="45">
-        <v>717063</v>
+        <v>722509</v>
       </c>
       <c r="E15" s="45">
-        <v>123860</v>
+        <v>126997</v>
       </c>
       <c r="F15" s="45">
-        <v>265303</v>
+        <v>265605</v>
       </c>
       <c r="G15" s="45">
-        <v>2085</v>
+        <v>7376</v>
       </c>
       <c r="H15" s="45">
-        <v>628818</v>
+        <v>642935</v>
       </c>
       <c r="I15" s="45">
-        <v>541951</v>
+        <v>552436</v>
       </c>
       <c r="J15" s="45">
-        <v>45661</v>
+        <v>46923</v>
       </c>
       <c r="K15" s="45">
-        <v>39009</v>
+        <v>41165</v>
       </c>
       <c r="L15" s="45">
-        <v>2197</v>
+        <v>2411</v>
       </c>
       <c r="M15" s="45">
-        <v>4394</v>
+        <v>11966</v>
       </c>
       <c r="N15" s="45">
-        <v>561075</v>
+        <v>565478</v>
       </c>
       <c r="O15" s="45">
-        <v>428648</v>
+        <v>431487</v>
       </c>
       <c r="P15" s="45">
         <v>234</v>
       </c>
       <c r="Q15" s="45">
-        <v>132193</v>
+        <v>133757</v>
       </c>
       <c r="R15" s="45">
-        <v>615</v>
+        <v>4403</v>
       </c>
       <c r="S15" s="45">
-        <v>143207</v>
+        <v>147073</v>
       </c>
       <c r="T15" s="45">
-        <v>128378</v>
+        <v>130323</v>
       </c>
       <c r="U15" s="45">
         <v>105</v>
       </c>
       <c r="V15" s="45">
-        <v>2365</v>
+        <v>2476</v>
       </c>
       <c r="W15" s="45">
-        <v>12359</v>
+        <v>14169</v>
       </c>
       <c r="X15" s="45">
-        <v>379</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -3628,70 +3636,70 @@
         <v>10</v>
       </c>
       <c r="C16" s="46">
-        <v>311061</v>
+        <v>312153</v>
       </c>
       <c r="D16" s="46">
-        <v>235885</v>
+        <v>236598</v>
       </c>
       <c r="E16" s="46">
-        <v>32933</v>
+        <v>33294</v>
       </c>
       <c r="F16" s="46">
-        <v>42243</v>
+        <v>42261</v>
       </c>
       <c r="G16" s="46">
-        <v>132</v>
+        <v>937</v>
       </c>
       <c r="H16" s="46">
-        <v>167611</v>
+        <v>172840</v>
       </c>
       <c r="I16" s="46">
-        <v>146641</v>
+        <v>151556</v>
       </c>
       <c r="J16" s="46">
-        <v>14938</v>
+        <v>14945</v>
       </c>
       <c r="K16" s="46">
-        <v>5930</v>
+        <v>6172</v>
       </c>
       <c r="L16" s="46">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="M16" s="46">
-        <v>901</v>
+        <v>4681</v>
       </c>
       <c r="N16" s="46">
-        <v>141766</v>
+        <v>142951</v>
       </c>
       <c r="O16" s="46">
-        <v>109038</v>
+        <v>109647</v>
       </c>
       <c r="P16" s="46">
         <v>93</v>
       </c>
       <c r="Q16" s="46">
-        <v>32635</v>
+        <v>33211</v>
       </c>
       <c r="R16" s="46">
-        <v>12</v>
+        <v>1185</v>
       </c>
       <c r="S16" s="46">
-        <v>35021</v>
+        <v>36023</v>
       </c>
       <c r="T16" s="46">
-        <v>30020</v>
+        <v>30375</v>
       </c>
       <c r="U16" s="46">
         <v>26</v>
       </c>
       <c r="V16" s="46">
-        <v>1878</v>
+        <v>1947</v>
       </c>
       <c r="W16" s="46">
-        <v>3097</v>
+        <v>3675</v>
       </c>
       <c r="X16" s="46">
-        <v>0</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -3702,70 +3710,70 @@
         <v>6</v>
       </c>
       <c r="C17" s="45">
-        <v>1061033</v>
+        <v>1069694</v>
       </c>
       <c r="D17" s="45">
-        <v>714046</v>
+        <v>721185</v>
       </c>
       <c r="E17" s="45">
-        <v>154540</v>
+        <v>155129</v>
       </c>
       <c r="F17" s="45">
-        <v>192447</v>
+        <v>193380</v>
       </c>
       <c r="G17" s="45">
-        <v>8078</v>
+        <v>8661</v>
       </c>
       <c r="H17" s="45">
-        <v>685870</v>
+        <v>694358</v>
       </c>
       <c r="I17" s="45">
-        <v>600470</v>
+        <v>605104</v>
       </c>
       <c r="J17" s="45">
-        <v>61068</v>
+        <v>63073</v>
       </c>
       <c r="K17" s="45">
-        <v>14029</v>
+        <v>15345</v>
       </c>
       <c r="L17" s="45">
-        <v>10303</v>
+        <v>10836</v>
       </c>
       <c r="M17" s="45">
-        <v>7030</v>
+        <v>8488</v>
       </c>
       <c r="N17" s="45">
-        <v>462478</v>
+        <v>465553</v>
       </c>
       <c r="O17" s="45">
-        <v>333520</v>
+        <v>335257</v>
       </c>
       <c r="P17" s="45">
         <v>437</v>
       </c>
       <c r="Q17" s="45">
-        <v>128521</v>
+        <v>129859</v>
       </c>
       <c r="R17" s="45">
-        <v>169</v>
+        <v>3075</v>
       </c>
       <c r="S17" s="45">
-        <v>166438</v>
+        <v>170865</v>
       </c>
       <c r="T17" s="45">
-        <v>151287</v>
+        <v>153533</v>
       </c>
       <c r="U17" s="45">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="V17" s="45">
-        <v>7162</v>
+        <v>8152</v>
       </c>
       <c r="W17" s="45">
-        <v>7857</v>
+        <v>9045</v>
       </c>
       <c r="X17" s="45">
-        <v>317</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -3776,70 +3784,70 @@
         <v>7</v>
       </c>
       <c r="C18" s="47">
-        <v>601446</v>
+        <v>605314</v>
       </c>
       <c r="D18" s="47">
-        <v>399191</v>
+        <v>401380</v>
       </c>
       <c r="E18" s="47">
-        <v>70611</v>
+        <v>72122</v>
       </c>
       <c r="F18" s="47">
-        <v>131644</v>
+        <v>131812</v>
       </c>
       <c r="G18" s="47">
-        <v>362</v>
+        <v>3868</v>
       </c>
       <c r="H18" s="47">
-        <v>303543</v>
+        <v>312509</v>
       </c>
       <c r="I18" s="47">
-        <v>247791</v>
+        <v>255698</v>
       </c>
       <c r="J18" s="47">
-        <v>38247</v>
+        <v>38568</v>
       </c>
       <c r="K18" s="47">
-        <v>10848</v>
+        <v>11373</v>
       </c>
       <c r="L18" s="47">
-        <v>6657</v>
+        <v>6870</v>
       </c>
       <c r="M18" s="47">
-        <v>1794</v>
+        <v>8966</v>
       </c>
       <c r="N18" s="46">
-        <v>280860</v>
+        <v>282985</v>
       </c>
       <c r="O18" s="46">
-        <v>227902</v>
+        <v>229149</v>
       </c>
       <c r="P18" s="46">
         <v>75</v>
       </c>
       <c r="Q18" s="46">
-        <v>52883</v>
+        <v>53761</v>
       </c>
       <c r="R18" s="46">
-        <v>16</v>
+        <v>2125</v>
       </c>
       <c r="S18" s="46">
-        <v>72701</v>
+        <v>75133</v>
       </c>
       <c r="T18" s="46">
-        <v>61840</v>
+        <v>62724</v>
       </c>
       <c r="U18" s="46">
         <v>66</v>
       </c>
       <c r="V18" s="46">
-        <v>3685</v>
+        <v>3989</v>
       </c>
       <c r="W18" s="46">
-        <v>7110</v>
+        <v>8354</v>
       </c>
       <c r="X18" s="46">
-        <v>63</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -3850,37 +3858,37 @@
         <v>8</v>
       </c>
       <c r="C19" s="45">
-        <v>763681</v>
+        <v>773562</v>
       </c>
       <c r="D19" s="45">
-        <v>537972</v>
+        <v>545525</v>
       </c>
       <c r="E19" s="45">
-        <v>79614</v>
+        <v>81232</v>
       </c>
       <c r="F19" s="45">
-        <v>146095</v>
+        <v>146805</v>
       </c>
       <c r="G19" s="45">
-        <v>8077</v>
+        <v>7431</v>
       </c>
       <c r="H19" s="45">
-        <v>469703</v>
+        <v>475660</v>
       </c>
       <c r="I19" s="45">
-        <v>385809</v>
+        <v>390659</v>
       </c>
       <c r="J19" s="45">
-        <v>46696</v>
+        <v>47365</v>
       </c>
       <c r="K19" s="45">
-        <v>26840</v>
+        <v>27262</v>
       </c>
       <c r="L19" s="45">
-        <v>10358</v>
+        <v>10374</v>
       </c>
       <c r="M19" s="45">
-        <v>4894</v>
+        <v>5897</v>
       </c>
       <c r="N19" s="45">
         <v>466532</v>
@@ -3895,7 +3903,7 @@
         <v>147015</v>
       </c>
       <c r="R19" s="45">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="S19" s="45">
         <v>104619</v>
@@ -3913,7 +3921,7 @@
         <v>8323</v>
       </c>
       <c r="X19" s="45">
-        <v>496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -3924,70 +3932,70 @@
         <v>70</v>
       </c>
       <c r="C20" s="47">
-        <v>612352</v>
+        <v>620060</v>
       </c>
       <c r="D20" s="47">
-        <v>403892</v>
+        <v>408861</v>
       </c>
       <c r="E20" s="47">
-        <v>99328</v>
+        <v>102052</v>
       </c>
       <c r="F20" s="47">
-        <v>109132</v>
+        <v>109147</v>
       </c>
       <c r="G20" s="47">
-        <v>2557</v>
+        <v>7170</v>
       </c>
       <c r="H20" s="47">
-        <v>336134</v>
+        <v>338555</v>
       </c>
       <c r="I20" s="47">
-        <v>305837</v>
+        <v>306749</v>
       </c>
       <c r="J20" s="47">
-        <v>24549</v>
+        <v>25350</v>
       </c>
       <c r="K20" s="47">
-        <v>5006</v>
+        <v>5614</v>
       </c>
       <c r="L20" s="47">
-        <v>742</v>
+        <v>842</v>
       </c>
       <c r="M20" s="47">
-        <v>4105</v>
+        <v>1591</v>
       </c>
       <c r="N20" s="47">
-        <v>247267</v>
+        <v>248758</v>
       </c>
       <c r="O20" s="46">
-        <v>199230</v>
+        <v>200202</v>
       </c>
       <c r="P20" s="46">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="46">
-        <v>47917</v>
+        <v>48433</v>
       </c>
       <c r="R20" s="46">
-        <v>56</v>
+        <v>1491</v>
       </c>
       <c r="S20" s="46">
-        <v>80070</v>
+        <v>82142</v>
       </c>
       <c r="T20" s="46">
-        <v>64783</v>
+        <v>65656</v>
       </c>
       <c r="U20" s="46">
         <v>52</v>
       </c>
       <c r="V20" s="46">
-        <v>9771</v>
+        <v>10089</v>
       </c>
       <c r="W20" s="46">
-        <v>5464</v>
+        <v>6345</v>
       </c>
       <c r="X20" s="46">
-        <v>82</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -3996,68 +4004,68 @@
         <v>46</v>
       </c>
       <c r="C21" s="45">
-        <v>104177</v>
+        <v>106976</v>
       </c>
       <c r="D21" s="45">
-        <v>16892</v>
+        <v>19013</v>
       </c>
       <c r="E21" s="45">
-        <v>68987</v>
+        <v>69668</v>
       </c>
       <c r="F21" s="45">
-        <v>18298</v>
+        <v>18295</v>
       </c>
       <c r="G21" s="45">
-        <v>0</v>
+        <v>2157</v>
       </c>
       <c r="H21" s="45">
-        <v>39215</v>
+        <v>41888</v>
       </c>
       <c r="I21" s="55">
-        <v>1375</v>
+        <v>1419</v>
       </c>
       <c r="J21" s="55">
-        <v>30493</v>
+        <v>32772</v>
       </c>
       <c r="K21" s="55">
-        <v>3776</v>
+        <v>4115</v>
       </c>
       <c r="L21" s="55">
-        <v>3571</v>
+        <v>3582</v>
       </c>
       <c r="M21" s="55">
-        <v>0</v>
+        <v>2652</v>
       </c>
       <c r="N21" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O21" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P21" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R21" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S21" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T21" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U21" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V21" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W21" s="56"/>
       <c r="X21" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4066,70 +4074,70 @@
         <v>15</v>
       </c>
       <c r="C22" s="57">
-        <v>23512880</v>
+        <v>23637261</v>
       </c>
       <c r="D22" s="57">
-        <v>15401763</v>
+        <v>15483591</v>
       </c>
       <c r="E22" s="57">
-        <v>2826952</v>
+        <v>2860638</v>
       </c>
       <c r="F22" s="57">
-        <v>5284165</v>
+        <v>5293032</v>
       </c>
       <c r="G22" s="57">
-        <v>86419</v>
+        <v>92563</v>
       </c>
       <c r="H22" s="57">
-        <v>11706656</v>
+        <v>12024861</v>
       </c>
       <c r="I22" s="57">
-        <v>9985025</v>
+        <v>10231882</v>
       </c>
       <c r="J22" s="57">
-        <v>1046460</v>
+        <v>1085019</v>
       </c>
       <c r="K22" s="57">
-        <v>498415</v>
+        <v>524300</v>
       </c>
       <c r="L22" s="57">
-        <v>176756</v>
+        <v>183660</v>
       </c>
       <c r="M22" s="57">
-        <v>162690</v>
+        <v>260765</v>
       </c>
       <c r="N22" s="57">
-        <v>11812797</v>
+        <v>11893853</v>
       </c>
       <c r="O22" s="57">
-        <v>8588326</v>
+        <v>8636472</v>
       </c>
       <c r="P22" s="57">
-        <v>19754</v>
+        <v>19879</v>
       </c>
       <c r="Q22" s="57">
-        <v>3204717</v>
+        <v>3237502</v>
       </c>
       <c r="R22" s="57">
-        <v>12361</v>
+        <v>81056</v>
       </c>
       <c r="S22" s="57">
-        <v>2908396</v>
+        <v>2985109</v>
       </c>
       <c r="T22" s="57">
-        <v>2480559</v>
+        <v>2513331</v>
       </c>
       <c r="U22" s="57">
-        <v>7051</v>
+        <v>7228</v>
       </c>
       <c r="V22" s="57">
-        <v>167812</v>
+        <v>175269</v>
       </c>
       <c r="W22" s="57">
-        <v>252974</v>
+        <v>289281</v>
       </c>
       <c r="X22" s="57">
-        <v>9457</v>
+        <v>76713</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -4144,29 +4152,29 @@
       </c>
     </row>
     <row r="27" spans="1:24" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="70"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
       <c r="W27" s="62"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -4176,8 +4184,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:Q3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="B27:V27"/>
@@ -4193,6 +4199,8 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="H3:K3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4200,58 +4208,61 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD2E263-4F37-4CCD-9472-109108C9F925}">
-  <dimension ref="A1:D160"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="C1" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="D1" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="66" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="85">
+      <c r="A2" s="68">
         <v>44192</v>
       </c>
       <c r="B2" s="45">
-        <v>24086</v>
+        <v>24085</v>
       </c>
       <c r="C2" s="45">
         <v>0</v>
       </c>
       <c r="D2" s="45">
-        <v>24086</v>
+        <v>24085</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="86">
+      <c r="A3" s="69">
         <v>44193</v>
       </c>
       <c r="B3" s="46">
-        <v>18519</v>
+        <v>18518</v>
       </c>
       <c r="C3" s="46">
         <v>0</v>
       </c>
       <c r="D3" s="46">
-        <v>18519</v>
+        <v>18518</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="85">
+      <c r="A4" s="68">
         <v>44194</v>
       </c>
       <c r="B4" s="45">
@@ -4265,7 +4276,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="86">
+      <c r="A5" s="69">
         <v>44195</v>
       </c>
       <c r="B5" s="46">
@@ -4279,21 +4290,21 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="85">
+      <c r="A6" s="68">
         <v>44196</v>
       </c>
       <c r="B6" s="45">
-        <v>50055</v>
+        <v>50054</v>
       </c>
       <c r="C6" s="45">
         <v>0</v>
       </c>
       <c r="D6" s="45">
-        <v>50055</v>
+        <v>50054</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="86">
+      <c r="A7" s="69">
         <v>44197</v>
       </c>
       <c r="B7" s="46">
@@ -4307,7 +4318,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="85">
+      <c r="A8" s="68">
         <v>44198</v>
       </c>
       <c r="B8" s="45">
@@ -4321,7 +4332,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="86">
+      <c r="A9" s="69">
         <v>44199</v>
       </c>
       <c r="B9" s="46">
@@ -4335,2096 +4346,2110 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="85">
+      <c r="A10" s="68">
         <v>44200</v>
       </c>
       <c r="B10" s="45">
-        <v>48124</v>
+        <v>48123</v>
       </c>
       <c r="C10" s="45">
         <v>0</v>
       </c>
       <c r="D10" s="45">
-        <v>48124</v>
+        <v>48123</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="86">
+      <c r="A11" s="69">
         <v>44201</v>
       </c>
       <c r="B11" s="46">
-        <v>53740</v>
+        <v>53742</v>
       </c>
       <c r="C11" s="46">
         <v>0</v>
       </c>
       <c r="D11" s="46">
-        <v>53740</v>
+        <v>53742</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="85">
+      <c r="A12" s="68">
         <v>44202</v>
       </c>
       <c r="B12" s="45">
-        <v>62664</v>
+        <v>62651</v>
       </c>
       <c r="C12" s="45">
         <v>0</v>
       </c>
       <c r="D12" s="45">
-        <v>62664</v>
+        <v>62651</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="86">
+      <c r="A13" s="69">
         <v>44203</v>
       </c>
       <c r="B13" s="46">
-        <v>56071</v>
+        <v>56069</v>
       </c>
       <c r="C13" s="46">
         <v>0</v>
       </c>
       <c r="D13" s="46">
-        <v>56071</v>
+        <v>56069</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="85">
+      <c r="A14" s="68">
         <v>44204</v>
       </c>
       <c r="B14" s="45">
-        <v>62725</v>
+        <v>62719</v>
       </c>
       <c r="C14" s="45">
         <v>0</v>
       </c>
       <c r="D14" s="45">
-        <v>62725</v>
+        <v>62719</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="87">
+      <c r="A15" s="70">
         <v>44205</v>
       </c>
       <c r="B15" s="47">
-        <v>61393</v>
+        <v>61389</v>
       </c>
       <c r="C15" s="47">
         <v>0</v>
       </c>
       <c r="D15" s="47">
-        <v>61393</v>
+        <v>61389</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="85">
+      <c r="A16" s="68">
         <v>44206</v>
       </c>
       <c r="B16" s="45">
-        <v>35503</v>
+        <v>35502</v>
       </c>
       <c r="C16" s="45">
         <v>0</v>
       </c>
       <c r="D16" s="45">
-        <v>35503</v>
+        <v>35502</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="87">
+      <c r="A17" s="70">
         <v>44207</v>
       </c>
       <c r="B17" s="47">
-        <v>67546</v>
+        <v>67544</v>
       </c>
       <c r="C17" s="47">
         <v>0</v>
       </c>
       <c r="D17" s="47">
-        <v>67546</v>
+        <v>67544</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="85">
+      <c r="A18" s="68">
         <v>44208</v>
       </c>
       <c r="B18" s="45">
-        <v>82669</v>
+        <v>82820</v>
       </c>
       <c r="C18" s="45">
         <v>0</v>
       </c>
       <c r="D18" s="45">
-        <v>82669</v>
+        <v>82820</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="86">
+      <c r="A19" s="69">
         <v>44209</v>
       </c>
       <c r="B19" s="46">
-        <v>111671</v>
+        <v>111668</v>
       </c>
       <c r="C19" s="46">
         <v>0</v>
       </c>
       <c r="D19" s="46">
-        <v>111671</v>
+        <v>111668</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="85">
+      <c r="A20" s="68">
         <v>44210</v>
       </c>
       <c r="B20" s="45">
-        <v>82962</v>
+        <v>83034</v>
       </c>
       <c r="C20" s="45">
         <v>0</v>
       </c>
       <c r="D20" s="45">
-        <v>82962</v>
+        <v>83034</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="86">
+      <c r="A21" s="69">
         <v>44211</v>
       </c>
       <c r="B21" s="46">
-        <v>90981</v>
+        <v>91001</v>
       </c>
       <c r="C21" s="46">
         <v>609</v>
       </c>
       <c r="D21" s="46">
-        <v>91590</v>
+        <v>91610</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="85">
+      <c r="A22" s="68">
         <v>44212</v>
       </c>
       <c r="B22" s="45">
-        <v>56711</v>
+        <v>56705</v>
       </c>
       <c r="C22" s="45">
         <v>906</v>
       </c>
       <c r="D22" s="45">
-        <v>57617</v>
+        <v>57611</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="86">
+      <c r="A23" s="69">
         <v>44213</v>
       </c>
       <c r="B23" s="46">
-        <v>31674</v>
+        <v>31673</v>
       </c>
       <c r="C23" s="46">
-        <v>17364</v>
+        <v>17363</v>
       </c>
       <c r="D23" s="46">
-        <v>49038</v>
+        <v>49036</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="85">
+      <c r="A24" s="68">
         <v>44214</v>
       </c>
       <c r="B24" s="45">
-        <v>66862</v>
+        <v>66866</v>
       </c>
       <c r="C24" s="45">
-        <v>15772</v>
+        <v>15771</v>
       </c>
       <c r="D24" s="45">
-        <v>82634</v>
+        <v>82637</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="86">
+      <c r="A25" s="69">
         <v>44215</v>
       </c>
       <c r="B25" s="46">
-        <v>82856</v>
+        <v>82852</v>
       </c>
       <c r="C25" s="46">
-        <v>34967</v>
+        <v>34964</v>
       </c>
       <c r="D25" s="46">
-        <v>117823</v>
+        <v>117816</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="85">
+      <c r="A26" s="68">
         <v>44216</v>
       </c>
       <c r="B26" s="45">
-        <v>80650</v>
+        <v>80643</v>
       </c>
       <c r="C26" s="45">
         <v>51590</v>
       </c>
       <c r="D26" s="45">
-        <v>132240</v>
+        <v>132233</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="86">
+      <c r="A27" s="69">
         <v>44217</v>
       </c>
       <c r="B27" s="46">
-        <v>65928</v>
+        <v>65935</v>
       </c>
       <c r="C27" s="46">
-        <v>41909</v>
+        <v>41908</v>
       </c>
       <c r="D27" s="46">
-        <v>107837</v>
+        <v>107843</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="85">
+      <c r="A28" s="68">
         <v>44218</v>
       </c>
       <c r="B28" s="45">
-        <v>68536</v>
+        <v>68530</v>
       </c>
       <c r="C28" s="45">
-        <v>35559</v>
+        <v>35558</v>
       </c>
       <c r="D28" s="45">
-        <v>104095</v>
+        <v>104088</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="86">
+      <c r="A29" s="69">
         <v>44219</v>
       </c>
       <c r="B29" s="46">
-        <v>40045</v>
+        <v>40046</v>
       </c>
       <c r="C29" s="46">
-        <v>44962</v>
+        <v>44960</v>
       </c>
       <c r="D29" s="46">
-        <v>85007</v>
+        <v>85006</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="85">
+      <c r="A30" s="68">
         <v>44220</v>
       </c>
       <c r="B30" s="45">
-        <v>26080</v>
+        <v>26077</v>
       </c>
       <c r="C30" s="45">
         <v>23147</v>
       </c>
       <c r="D30" s="45">
-        <v>49227</v>
+        <v>49224</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="87">
+      <c r="A31" s="70">
         <v>44221</v>
       </c>
       <c r="B31" s="47">
-        <v>53115</v>
+        <v>53113</v>
       </c>
       <c r="C31" s="47">
-        <v>38688</v>
+        <v>38686</v>
       </c>
       <c r="D31" s="47">
-        <v>91803</v>
+        <v>91799</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="85">
+      <c r="A32" s="68">
         <v>44222</v>
       </c>
       <c r="B32" s="45">
-        <v>50281</v>
+        <v>50291</v>
       </c>
       <c r="C32" s="45">
-        <v>48442</v>
+        <v>48440</v>
       </c>
       <c r="D32" s="45">
-        <v>98723</v>
+        <v>98731</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="87">
+      <c r="A33" s="70">
         <v>44223</v>
       </c>
       <c r="B33" s="47">
-        <v>51517</v>
+        <v>51553</v>
       </c>
       <c r="C33" s="47">
-        <v>59643</v>
+        <v>59644</v>
       </c>
       <c r="D33" s="47">
-        <v>111160</v>
+        <v>111197</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="85">
+      <c r="A34" s="68">
         <v>44224</v>
       </c>
       <c r="B34" s="45">
-        <v>45128</v>
+        <v>45127</v>
       </c>
       <c r="C34" s="45">
-        <v>46102</v>
+        <v>46101</v>
       </c>
       <c r="D34" s="45">
-        <v>91230</v>
+        <v>91228</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="86">
+      <c r="A35" s="69">
         <v>44225</v>
       </c>
       <c r="B35" s="46">
-        <v>51469</v>
+        <v>51465</v>
       </c>
       <c r="C35" s="46">
-        <v>57650</v>
+        <v>57648</v>
       </c>
       <c r="D35" s="46">
-        <v>109119</v>
+        <v>109113</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="85">
+      <c r="A36" s="68">
         <v>44226</v>
       </c>
       <c r="B36" s="45">
-        <v>36364</v>
+        <v>36362</v>
       </c>
       <c r="C36" s="45">
-        <v>52170</v>
+        <v>52168</v>
       </c>
       <c r="D36" s="45">
-        <v>88534</v>
+        <v>88530</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="86">
+      <c r="A37" s="69">
         <v>44227</v>
       </c>
       <c r="B37" s="46">
-        <v>25984</v>
+        <v>25983</v>
       </c>
       <c r="C37" s="46">
         <v>30534</v>
       </c>
       <c r="D37" s="46">
-        <v>56518</v>
+        <v>56517</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="85">
+      <c r="A38" s="68">
         <v>44228</v>
       </c>
       <c r="B38" s="45">
-        <v>59151</v>
+        <v>59147</v>
       </c>
       <c r="C38" s="45">
-        <v>61488</v>
+        <v>61487</v>
       </c>
       <c r="D38" s="45">
-        <v>120639</v>
+        <v>120634</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="86">
+      <c r="A39" s="69">
         <v>44229</v>
       </c>
       <c r="B39" s="46">
-        <v>64211</v>
+        <v>64208</v>
       </c>
       <c r="C39" s="46">
-        <v>67547</v>
+        <v>67606</v>
       </c>
       <c r="D39" s="46">
-        <v>131758</v>
+        <v>131814</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="85">
+      <c r="A40" s="68">
         <v>44230</v>
       </c>
       <c r="B40" s="45">
-        <v>64239</v>
+        <v>64240</v>
       </c>
       <c r="C40" s="45">
-        <v>95454</v>
+        <v>95448</v>
       </c>
       <c r="D40" s="45">
-        <v>159693</v>
+        <v>159688</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="86">
+      <c r="A41" s="69">
         <v>44231</v>
       </c>
       <c r="B41" s="46">
-        <v>61078</v>
+        <v>61076</v>
       </c>
       <c r="C41" s="46">
-        <v>70694</v>
+        <v>70768</v>
       </c>
       <c r="D41" s="46">
-        <v>131772</v>
+        <v>131844</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="85">
+      <c r="A42" s="68">
         <v>44232</v>
       </c>
       <c r="B42" s="45">
-        <v>67695</v>
+        <v>67690</v>
       </c>
       <c r="C42" s="45">
-        <v>77155</v>
+        <v>77175</v>
       </c>
       <c r="D42" s="45">
-        <v>144850</v>
+        <v>144865</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="86">
+      <c r="A43" s="69">
         <v>44233</v>
       </c>
       <c r="B43" s="46">
-        <v>47191</v>
+        <v>47198</v>
       </c>
       <c r="C43" s="46">
-        <v>53015</v>
+        <v>53023</v>
       </c>
       <c r="D43" s="46">
-        <v>100206</v>
+        <v>100221</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="85">
+      <c r="A44" s="68">
         <v>44234</v>
       </c>
       <c r="B44" s="45">
-        <v>28178</v>
+        <v>28176</v>
       </c>
       <c r="C44" s="45">
         <v>26097</v>
       </c>
       <c r="D44" s="45">
-        <v>54275</v>
+        <v>54273</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="86">
+      <c r="A45" s="69">
         <v>44235</v>
       </c>
       <c r="B45" s="46">
-        <v>53164</v>
+        <v>53159</v>
       </c>
       <c r="C45" s="46">
         <v>56785</v>
       </c>
       <c r="D45" s="46">
-        <v>109949</v>
+        <v>109944</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="85">
+      <c r="A46" s="68">
         <v>44236</v>
       </c>
       <c r="B46" s="45">
-        <v>59702</v>
+        <v>59701</v>
       </c>
       <c r="C46" s="45">
         <v>74220</v>
       </c>
       <c r="D46" s="45">
-        <v>133922</v>
+        <v>133921</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="87">
+      <c r="A47" s="70">
         <v>44237</v>
       </c>
       <c r="B47" s="47">
-        <v>75166</v>
+        <v>75167</v>
       </c>
       <c r="C47" s="47">
-        <v>76777</v>
+        <v>76778</v>
       </c>
       <c r="D47" s="47">
-        <v>151943</v>
+        <v>151945</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="85">
+      <c r="A48" s="68">
         <v>44238</v>
       </c>
       <c r="B48" s="45">
-        <v>73831</v>
+        <v>73837</v>
       </c>
       <c r="C48" s="45">
-        <v>67353</v>
+        <v>67445</v>
       </c>
       <c r="D48" s="45">
-        <v>141184</v>
+        <v>141282</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="87">
+      <c r="A49" s="70">
         <v>44239</v>
       </c>
       <c r="B49" s="47">
-        <v>81411</v>
+        <v>81415</v>
       </c>
       <c r="C49" s="47">
-        <v>76102</v>
+        <v>76099</v>
       </c>
       <c r="D49" s="47">
-        <v>157513</v>
+        <v>157514</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="85">
+      <c r="A50" s="68">
         <v>44240</v>
       </c>
       <c r="B50" s="45">
-        <v>62175</v>
+        <v>62178</v>
       </c>
       <c r="C50" s="45">
-        <v>45578</v>
+        <v>45580</v>
       </c>
       <c r="D50" s="45">
-        <v>107753</v>
+        <v>107758</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="86">
+      <c r="A51" s="69">
         <v>44241</v>
       </c>
       <c r="B51" s="46">
-        <v>40019</v>
+        <v>40018</v>
       </c>
       <c r="C51" s="46">
-        <v>25267</v>
+        <v>25266</v>
       </c>
       <c r="D51" s="46">
-        <v>65286</v>
+        <v>65284</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="85">
+      <c r="A52" s="68">
         <v>44242</v>
       </c>
       <c r="B52" s="45">
-        <v>71241</v>
+        <v>71242</v>
       </c>
       <c r="C52" s="45">
-        <v>55632</v>
+        <v>55634</v>
       </c>
       <c r="D52" s="45">
-        <v>126873</v>
+        <v>126876</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="86">
+      <c r="A53" s="69">
         <v>44243</v>
       </c>
       <c r="B53" s="46">
-        <v>82039</v>
+        <v>82037</v>
       </c>
       <c r="C53" s="46">
-        <v>54670</v>
+        <v>54686</v>
       </c>
       <c r="D53" s="46">
-        <v>136709</v>
+        <v>136723</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="85">
+      <c r="A54" s="68">
         <v>44244</v>
       </c>
       <c r="B54" s="45">
         <v>93577</v>
       </c>
       <c r="C54" s="45">
-        <v>55745</v>
+        <v>55776</v>
       </c>
       <c r="D54" s="45">
-        <v>149322</v>
+        <v>149353</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="86">
+      <c r="A55" s="69">
         <v>44245</v>
       </c>
       <c r="B55" s="46">
-        <v>91489</v>
+        <v>91498</v>
       </c>
       <c r="C55" s="46">
-        <v>51269</v>
+        <v>51295</v>
       </c>
       <c r="D55" s="46">
-        <v>142758</v>
+        <v>142793</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="85">
+      <c r="A56" s="68">
         <v>44246</v>
       </c>
       <c r="B56" s="45">
-        <v>99851</v>
+        <v>99853</v>
       </c>
       <c r="C56" s="45">
-        <v>54834</v>
+        <v>54841</v>
       </c>
       <c r="D56" s="45">
-        <v>154685</v>
+        <v>154694</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="86">
+      <c r="A57" s="69">
         <v>44247</v>
       </c>
       <c r="B57" s="46">
-        <v>76325</v>
+        <v>76326</v>
       </c>
       <c r="C57" s="46">
-        <v>37120</v>
+        <v>37117</v>
       </c>
       <c r="D57" s="46">
-        <v>113445</v>
+        <v>113443</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="85">
+      <c r="A58" s="68">
         <v>44248</v>
       </c>
       <c r="B58" s="45">
-        <v>57042</v>
+        <v>57046</v>
       </c>
       <c r="C58" s="45">
-        <v>29110</v>
+        <v>29109</v>
       </c>
       <c r="D58" s="45">
-        <v>86152</v>
+        <v>86155</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="86">
+      <c r="A59" s="69">
         <v>44249</v>
       </c>
       <c r="B59" s="46">
-        <v>100307</v>
+        <v>100313</v>
       </c>
       <c r="C59" s="46">
-        <v>60109</v>
+        <v>60110</v>
       </c>
       <c r="D59" s="46">
-        <v>160416</v>
+        <v>160423</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="85">
+      <c r="A60" s="68">
         <v>44250</v>
       </c>
       <c r="B60" s="45">
-        <v>107416</v>
+        <v>107419</v>
       </c>
       <c r="C60" s="45">
         <v>59759</v>
       </c>
       <c r="D60" s="45">
-        <v>167175</v>
+        <v>167178</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="86">
+      <c r="A61" s="69">
         <v>44251</v>
       </c>
       <c r="B61" s="46">
-        <v>116447</v>
+        <v>116444</v>
       </c>
       <c r="C61" s="46">
-        <v>59585</v>
+        <v>59584</v>
       </c>
       <c r="D61" s="46">
-        <v>176032</v>
+        <v>176028</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="85">
+      <c r="A62" s="68">
         <v>44252</v>
       </c>
       <c r="B62" s="45">
-        <v>130972</v>
+        <v>130973</v>
       </c>
       <c r="C62" s="45">
-        <v>58514</v>
+        <v>58511</v>
       </c>
       <c r="D62" s="45">
-        <v>189486</v>
+        <v>189484</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="87">
+      <c r="A63" s="70">
         <v>44253</v>
       </c>
       <c r="B63" s="47">
-        <v>144509</v>
+        <v>144524</v>
       </c>
       <c r="C63" s="47">
-        <v>65427</v>
+        <v>65426</v>
       </c>
       <c r="D63" s="47">
-        <v>209936</v>
+        <v>209950</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="85">
+      <c r="A64" s="68">
         <v>44254</v>
       </c>
       <c r="B64" s="45">
-        <v>108529</v>
+        <v>108534</v>
       </c>
       <c r="C64" s="45">
         <v>40031</v>
       </c>
       <c r="D64" s="45">
-        <v>148560</v>
+        <v>148565</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="87">
+      <c r="A65" s="70">
         <v>44255</v>
       </c>
       <c r="B65" s="47">
-        <v>83775</v>
+        <v>83776</v>
       </c>
       <c r="C65" s="47">
         <v>24287</v>
       </c>
       <c r="D65" s="47">
-        <v>108062</v>
+        <v>108063</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="85">
+      <c r="A66" s="68">
         <v>44256</v>
       </c>
       <c r="B66" s="45">
-        <v>146516</v>
+        <v>146523</v>
       </c>
       <c r="C66" s="45">
-        <v>49375</v>
+        <v>49385</v>
       </c>
       <c r="D66" s="45">
-        <v>195891</v>
+        <v>195908</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="86">
+      <c r="A67" s="69">
         <v>44257</v>
       </c>
       <c r="B67" s="46">
-        <v>166450</v>
+        <v>166454</v>
       </c>
       <c r="C67" s="46">
-        <v>53693</v>
+        <v>53700</v>
       </c>
       <c r="D67" s="46">
-        <v>220143</v>
+        <v>220154</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="85">
+      <c r="A68" s="68">
         <v>44258</v>
       </c>
       <c r="B68" s="45">
-        <v>174765</v>
+        <v>174781</v>
       </c>
       <c r="C68" s="45">
-        <v>69058</v>
+        <v>69061</v>
       </c>
       <c r="D68" s="45">
-        <v>243823</v>
+        <v>243842</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="86">
+      <c r="A69" s="69">
         <v>44259</v>
       </c>
       <c r="B69" s="46">
-        <v>180881</v>
+        <v>180888</v>
       </c>
       <c r="C69" s="46">
-        <v>62684</v>
+        <v>62840</v>
       </c>
       <c r="D69" s="46">
-        <v>243565</v>
+        <v>243728</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="85">
+      <c r="A70" s="68">
         <v>44260</v>
       </c>
       <c r="B70" s="45">
-        <v>202028</v>
+        <v>202038</v>
       </c>
       <c r="C70" s="45">
-        <v>67406</v>
+        <v>67410</v>
       </c>
       <c r="D70" s="45">
-        <v>269434</v>
+        <v>269448</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="86">
+      <c r="A71" s="69">
         <v>44261</v>
       </c>
       <c r="B71" s="46">
-        <v>153219</v>
+        <v>153210</v>
       </c>
       <c r="C71" s="46">
-        <v>49282</v>
+        <v>49305</v>
       </c>
       <c r="D71" s="46">
-        <v>202501</v>
+        <v>202515</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="85">
+      <c r="A72" s="68">
         <v>44262</v>
       </c>
       <c r="B72" s="45">
-        <v>115930</v>
+        <v>115939</v>
       </c>
       <c r="C72" s="45">
-        <v>34452</v>
+        <v>34463</v>
       </c>
       <c r="D72" s="45">
-        <v>150382</v>
+        <v>150402</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="86">
+      <c r="A73" s="69">
         <v>44263</v>
       </c>
       <c r="B73" s="46">
-        <v>186758</v>
+        <v>186783</v>
       </c>
       <c r="C73" s="46">
-        <v>52508</v>
+        <v>52505</v>
       </c>
       <c r="D73" s="46">
-        <v>239266</v>
+        <v>239288</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="85">
+      <c r="A74" s="68">
         <v>44264</v>
       </c>
       <c r="B74" s="45">
-        <v>195774</v>
+        <v>195783</v>
       </c>
       <c r="C74" s="45">
-        <v>54744</v>
+        <v>54747</v>
       </c>
       <c r="D74" s="45">
-        <v>250518</v>
+        <v>250530</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="86">
+      <c r="A75" s="69">
         <v>44265</v>
       </c>
       <c r="B75" s="46">
-        <v>218262</v>
+        <v>218287</v>
       </c>
       <c r="C75" s="46">
-        <v>65687</v>
+        <v>65694</v>
       </c>
       <c r="D75" s="46">
-        <v>283949</v>
+        <v>283981</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="85">
+      <c r="A76" s="68">
         <v>44266</v>
       </c>
       <c r="B76" s="45">
-        <v>221136</v>
+        <v>221221</v>
       </c>
       <c r="C76" s="45">
-        <v>60893</v>
+        <v>60903</v>
       </c>
       <c r="D76" s="45">
-        <v>282029</v>
+        <v>282124</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="86">
+      <c r="A77" s="69">
         <v>44267</v>
       </c>
       <c r="B77" s="46">
-        <v>252903</v>
+        <v>253073</v>
       </c>
       <c r="C77" s="46">
-        <v>71659</v>
+        <v>71673</v>
       </c>
       <c r="D77" s="46">
-        <v>324562</v>
+        <v>324746</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="85">
+      <c r="A78" s="68">
         <v>44268</v>
       </c>
       <c r="B78" s="45">
-        <v>197311</v>
+        <v>197468</v>
       </c>
       <c r="C78" s="45">
-        <v>49436</v>
+        <v>49446</v>
       </c>
       <c r="D78" s="45">
-        <v>246747</v>
+        <v>246914</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="87">
+      <c r="A79" s="70">
         <v>44269</v>
       </c>
       <c r="B79" s="47">
-        <v>135238</v>
+        <v>135251</v>
       </c>
       <c r="C79" s="47">
-        <v>35986</v>
+        <v>35993</v>
       </c>
       <c r="D79" s="47">
-        <v>171224</v>
+        <v>171244</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="85">
+      <c r="A80" s="68">
         <v>44270</v>
       </c>
       <c r="B80" s="45">
-        <v>189550</v>
+        <v>189652</v>
       </c>
       <c r="C80" s="45">
-        <v>58889</v>
+        <v>58890</v>
       </c>
       <c r="D80" s="45">
-        <v>248439</v>
+        <v>248542</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="87">
+      <c r="A81" s="70">
         <v>44271</v>
       </c>
       <c r="B81" s="47">
-        <v>112155</v>
+        <v>112160</v>
       </c>
       <c r="C81" s="47">
-        <v>67020</v>
+        <v>67032</v>
       </c>
       <c r="D81" s="47">
-        <v>179175</v>
+        <v>179192</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="85">
+      <c r="A82" s="68">
         <v>44272</v>
       </c>
       <c r="B82" s="45">
-        <v>125758</v>
+        <v>125761</v>
       </c>
       <c r="C82" s="45">
-        <v>79490</v>
+        <v>79494</v>
       </c>
       <c r="D82" s="45">
-        <v>205248</v>
+        <v>205255</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="86">
+      <c r="A83" s="69">
         <v>44273</v>
       </c>
       <c r="B83" s="46">
-        <v>119366</v>
+        <v>119374</v>
       </c>
       <c r="C83" s="46">
-        <v>75345</v>
+        <v>75354</v>
       </c>
       <c r="D83" s="46">
-        <v>194711</v>
+        <v>194728</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="85">
+      <c r="A84" s="68">
         <v>44274</v>
       </c>
       <c r="B84" s="45">
-        <v>161151</v>
+        <v>161228</v>
       </c>
       <c r="C84" s="45">
-        <v>82836</v>
+        <v>82847</v>
       </c>
       <c r="D84" s="45">
-        <v>243987</v>
+        <v>244075</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="86">
+      <c r="A85" s="69">
         <v>44275</v>
       </c>
       <c r="B85" s="46">
         <v>166402</v>
       </c>
       <c r="C85" s="46">
-        <v>53877</v>
+        <v>53884</v>
       </c>
       <c r="D85" s="46">
-        <v>220279</v>
+        <v>220286</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="85">
+      <c r="A86" s="68">
         <v>44276</v>
       </c>
       <c r="B86" s="45">
-        <v>127341</v>
+        <v>127345</v>
       </c>
       <c r="C86" s="45">
-        <v>38760</v>
+        <v>38762</v>
       </c>
       <c r="D86" s="45">
-        <v>166101</v>
+        <v>166107</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="86">
+      <c r="A87" s="69">
         <v>44277</v>
       </c>
       <c r="B87" s="46">
-        <v>190074</v>
+        <v>190151</v>
       </c>
       <c r="C87" s="46">
-        <v>76168</v>
+        <v>76188</v>
       </c>
       <c r="D87" s="46">
-        <v>266242</v>
+        <v>266339</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="85">
+      <c r="A88" s="68">
         <v>44278</v>
       </c>
       <c r="B88" s="45">
-        <v>214643</v>
+        <v>214802</v>
       </c>
       <c r="C88" s="45">
-        <v>83499</v>
+        <v>83512</v>
       </c>
       <c r="D88" s="45">
-        <v>298142</v>
+        <v>298314</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="86">
+      <c r="A89" s="69">
         <v>44279</v>
       </c>
       <c r="B89" s="46">
-        <v>245979</v>
+        <v>246163</v>
       </c>
       <c r="C89" s="46">
-        <v>88162</v>
+        <v>88178</v>
       </c>
       <c r="D89" s="46">
-        <v>334141</v>
+        <v>334341</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="85">
+      <c r="A90" s="68">
         <v>44280</v>
       </c>
       <c r="B90" s="45">
-        <v>257629</v>
+        <v>257763</v>
       </c>
       <c r="C90" s="45">
-        <v>79985</v>
+        <v>79998</v>
       </c>
       <c r="D90" s="45">
-        <v>337614</v>
+        <v>337761</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="86">
+      <c r="A91" s="69">
         <v>44281</v>
       </c>
       <c r="B91" s="46">
-        <v>286322</v>
+        <v>286346</v>
       </c>
       <c r="C91" s="46">
-        <v>88634</v>
+        <v>88659</v>
       </c>
       <c r="D91" s="46">
-        <v>374956</v>
+        <v>375005</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="85">
+      <c r="A92" s="68">
         <v>44282</v>
       </c>
       <c r="B92" s="45">
-        <v>223688</v>
+        <v>223697</v>
       </c>
       <c r="C92" s="45">
-        <v>63177</v>
+        <v>63183</v>
       </c>
       <c r="D92" s="45">
-        <v>286865</v>
+        <v>286880</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="86">
+      <c r="A93" s="69">
         <v>44283</v>
       </c>
       <c r="B93" s="46">
-        <v>144175</v>
+        <v>144199</v>
       </c>
       <c r="C93" s="46">
-        <v>52736</v>
+        <v>52752</v>
       </c>
       <c r="D93" s="46">
-        <v>196911</v>
+        <v>196951</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="85">
+      <c r="A94" s="68">
         <v>44284</v>
       </c>
       <c r="B94" s="45">
-        <v>219863</v>
+        <v>219878</v>
       </c>
       <c r="C94" s="45">
-        <v>89022</v>
+        <v>89033</v>
       </c>
       <c r="D94" s="45">
-        <v>308885</v>
+        <v>308911</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="87">
+      <c r="A95" s="70">
         <v>44285</v>
       </c>
       <c r="B95" s="47">
-        <v>235288</v>
+        <v>235290</v>
       </c>
       <c r="C95" s="47">
-        <v>93344</v>
+        <v>93361</v>
       </c>
       <c r="D95" s="47">
-        <v>328632</v>
+        <v>328651</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="85">
+      <c r="A96" s="68">
         <v>44286</v>
       </c>
       <c r="B96" s="45">
-        <v>238571</v>
+        <v>238582</v>
       </c>
       <c r="C96" s="45">
-        <v>103095</v>
+        <v>103100</v>
       </c>
       <c r="D96" s="45">
-        <v>341666</v>
+        <v>341682</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="87">
+      <c r="A97" s="70">
         <v>44287</v>
       </c>
       <c r="B97" s="47">
-        <v>231811</v>
+        <v>231824</v>
       </c>
       <c r="C97" s="47">
-        <v>92607</v>
+        <v>92617</v>
       </c>
       <c r="D97" s="47">
-        <v>324418</v>
+        <v>324441</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="85">
+      <c r="A98" s="68">
         <v>44288</v>
       </c>
       <c r="B98" s="45">
         <v>158532</v>
       </c>
       <c r="C98" s="45">
-        <v>71669</v>
+        <v>71675</v>
       </c>
       <c r="D98" s="45">
-        <v>230201</v>
+        <v>230207</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="86">
+      <c r="A99" s="69">
         <v>44289</v>
       </c>
       <c r="B99" s="46">
-        <v>166119</v>
+        <v>166122</v>
       </c>
       <c r="C99" s="46">
-        <v>66003</v>
+        <v>66010</v>
       </c>
       <c r="D99" s="46">
-        <v>232122</v>
+        <v>232132</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="85">
+      <c r="A100" s="68">
         <v>44290</v>
       </c>
       <c r="B100" s="45">
-        <v>142687</v>
+        <v>142695</v>
       </c>
       <c r="C100" s="45">
-        <v>53506</v>
+        <v>53522</v>
       </c>
       <c r="D100" s="45">
-        <v>196193</v>
+        <v>196217</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="86">
+      <c r="A101" s="69">
         <v>44291</v>
       </c>
       <c r="B101" s="46">
-        <v>176379</v>
+        <v>176382</v>
       </c>
       <c r="C101" s="46">
-        <v>73370</v>
+        <v>73379</v>
       </c>
       <c r="D101" s="46">
-        <v>249749</v>
+        <v>249761</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="85">
+      <c r="A102" s="68">
         <v>44292</v>
       </c>
       <c r="B102" s="45">
-        <v>279729</v>
+        <v>279744</v>
       </c>
       <c r="C102" s="45">
-        <v>99280</v>
+        <v>99286</v>
       </c>
       <c r="D102" s="45">
-        <v>379009</v>
+        <v>379030</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="86">
+      <c r="A103" s="69">
         <v>44293</v>
       </c>
       <c r="B103" s="46">
-        <v>581455</v>
+        <v>581466</v>
       </c>
       <c r="C103" s="46">
-        <v>97143</v>
+        <v>97182</v>
       </c>
       <c r="D103" s="46">
-        <v>678598</v>
+        <v>678648</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="85">
+      <c r="A104" s="68">
         <v>44294</v>
       </c>
       <c r="B104" s="45">
-        <v>643613</v>
+        <v>643622</v>
       </c>
       <c r="C104" s="45">
-        <v>89787</v>
+        <v>89802</v>
       </c>
       <c r="D104" s="45">
-        <v>733400</v>
+        <v>733424</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="86">
+      <c r="A105" s="69">
         <v>44295</v>
       </c>
       <c r="B105" s="46">
-        <v>535467</v>
+        <v>535478</v>
       </c>
       <c r="C105" s="46">
-        <v>88608</v>
+        <v>88622</v>
       </c>
       <c r="D105" s="46">
-        <v>624075</v>
+        <v>624100</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="85">
+      <c r="A106" s="68">
         <v>44296</v>
       </c>
       <c r="B106" s="45">
-        <v>303147</v>
+        <v>303154</v>
       </c>
       <c r="C106" s="45">
-        <v>65507</v>
+        <v>65519</v>
       </c>
       <c r="D106" s="45">
-        <v>368654</v>
+        <v>368673</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="86">
+      <c r="A107" s="69">
         <v>44297</v>
       </c>
       <c r="B107" s="46">
-        <v>210757</v>
+        <v>210776</v>
       </c>
       <c r="C107" s="46">
-        <v>50012</v>
+        <v>50025</v>
       </c>
       <c r="D107" s="46">
-        <v>260769</v>
+        <v>260801</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="85">
+      <c r="A108" s="68">
         <v>44298</v>
       </c>
       <c r="B108" s="45">
-        <v>339671</v>
+        <v>339714</v>
       </c>
       <c r="C108" s="45">
-        <v>76900</v>
+        <v>76911</v>
       </c>
       <c r="D108" s="45">
-        <v>416571</v>
+        <v>416625</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="86">
+      <c r="A109" s="69">
         <v>44299</v>
       </c>
       <c r="B109" s="46">
-        <v>498580</v>
+        <v>498644</v>
       </c>
       <c r="C109" s="46">
-        <v>73466</v>
+        <v>73492</v>
       </c>
       <c r="D109" s="46">
-        <v>572046</v>
+        <v>572136</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="85">
+      <c r="A110" s="68">
         <v>44300</v>
       </c>
       <c r="B110" s="45">
-        <v>691453</v>
+        <v>691815</v>
       </c>
       <c r="C110" s="45">
-        <v>83470</v>
+        <v>83530</v>
       </c>
       <c r="D110" s="45">
-        <v>774923</v>
+        <v>775345</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="87">
+      <c r="A111" s="70">
         <v>44301</v>
       </c>
       <c r="B111" s="47">
-        <v>609596</v>
+        <v>609622</v>
       </c>
       <c r="C111" s="47">
-        <v>70976</v>
+        <v>71033</v>
       </c>
       <c r="D111" s="47">
-        <v>680572</v>
+        <v>680655</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="85">
+      <c r="A112" s="68">
         <v>44302</v>
       </c>
       <c r="B112" s="45">
-        <v>519147</v>
+        <v>519246</v>
       </c>
       <c r="C112" s="45">
-        <v>75308</v>
+        <v>75371</v>
       </c>
       <c r="D112" s="45">
-        <v>594455</v>
+        <v>594617</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="87">
+      <c r="A113" s="70">
         <v>44303</v>
       </c>
       <c r="B113" s="47">
-        <v>306676</v>
+        <v>306736</v>
       </c>
       <c r="C113" s="47">
-        <v>56486</v>
+        <v>56504</v>
       </c>
       <c r="D113" s="47">
-        <v>363162</v>
+        <v>363240</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="85">
+      <c r="A114" s="68">
         <v>44304</v>
       </c>
       <c r="B114" s="45">
-        <v>227435</v>
+        <v>227447</v>
       </c>
       <c r="C114" s="45">
-        <v>39174</v>
+        <v>39190</v>
       </c>
       <c r="D114" s="45">
-        <v>266609</v>
+        <v>266637</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="86">
+      <c r="A115" s="69">
         <v>44305</v>
       </c>
       <c r="B115" s="46">
-        <v>338990</v>
+        <v>339439</v>
       </c>
       <c r="C115" s="46">
-        <v>60821</v>
+        <v>60855</v>
       </c>
       <c r="D115" s="46">
-        <v>399811</v>
+        <v>400294</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="85">
+      <c r="A116" s="68">
         <v>44306</v>
       </c>
       <c r="B116" s="45">
-        <v>494271</v>
+        <v>494334</v>
       </c>
       <c r="C116" s="45">
-        <v>61914</v>
+        <v>61921</v>
       </c>
       <c r="D116" s="45">
-        <v>556185</v>
+        <v>556255</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="86">
+      <c r="A117" s="69">
         <v>44307</v>
       </c>
       <c r="B117" s="46">
-        <v>642666</v>
+        <v>642974</v>
       </c>
       <c r="C117" s="46">
-        <v>71849</v>
+        <v>71919</v>
       </c>
       <c r="D117" s="46">
-        <v>714515</v>
+        <v>714893</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="85">
+      <c r="A118" s="68">
         <v>44308</v>
       </c>
       <c r="B118" s="45">
-        <v>568524</v>
+        <v>568596</v>
       </c>
       <c r="C118" s="45">
-        <v>66352</v>
+        <v>66373</v>
       </c>
       <c r="D118" s="45">
-        <v>634876</v>
+        <v>634969</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="86">
+      <c r="A119" s="69">
         <v>44309</v>
       </c>
       <c r="B119" s="46">
-        <v>484158</v>
+        <v>484647</v>
       </c>
       <c r="C119" s="46">
-        <v>67913</v>
+        <v>67941</v>
       </c>
       <c r="D119" s="46">
-        <v>552071</v>
+        <v>552588</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="85">
+      <c r="A120" s="68">
         <v>44310</v>
       </c>
       <c r="B120" s="45">
-        <v>310022</v>
+        <v>310872</v>
       </c>
       <c r="C120" s="45">
-        <v>59859</v>
+        <v>59865</v>
       </c>
       <c r="D120" s="45">
-        <v>369881</v>
+        <v>370737</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="86">
+      <c r="A121" s="69">
         <v>44311</v>
       </c>
       <c r="B121" s="46">
-        <v>235706</v>
+        <v>236483</v>
       </c>
       <c r="C121" s="46">
-        <v>47792</v>
+        <v>47866</v>
       </c>
       <c r="D121" s="46">
-        <v>283498</v>
+        <v>284349</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="85">
+      <c r="A122" s="68">
         <v>44312</v>
       </c>
       <c r="B122" s="45">
-        <v>355194</v>
+        <v>355869</v>
       </c>
       <c r="C122" s="45">
-        <v>73334</v>
+        <v>73343</v>
       </c>
       <c r="D122" s="45">
-        <v>428528</v>
+        <v>429212</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="86">
+      <c r="A123" s="69">
         <v>44313</v>
       </c>
       <c r="B123" s="46">
-        <v>693897</v>
+        <v>694518</v>
       </c>
       <c r="C123" s="46">
-        <v>90509</v>
+        <v>90526</v>
       </c>
       <c r="D123" s="46">
-        <v>784406</v>
+        <v>785044</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="85">
+      <c r="A124" s="68">
         <v>44314</v>
       </c>
       <c r="B124" s="45">
-        <v>994051</v>
+        <v>994572</v>
       </c>
       <c r="C124" s="45">
-        <v>127312</v>
+        <v>127341</v>
       </c>
       <c r="D124" s="45">
-        <v>1121363</v>
+        <v>1121913</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="86">
+      <c r="A125" s="69">
         <v>44315</v>
       </c>
       <c r="B125" s="46">
-        <v>808783</v>
+        <v>810572</v>
       </c>
       <c r="C125" s="46">
-        <v>132791</v>
+        <v>132820</v>
       </c>
       <c r="D125" s="46">
-        <v>941574</v>
+        <v>943392</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="85">
+      <c r="A126" s="68">
         <v>44316</v>
       </c>
       <c r="B126" s="45">
-        <v>662795</v>
+        <v>663151</v>
       </c>
       <c r="C126" s="45">
-        <v>137736</v>
+        <v>137756</v>
       </c>
       <c r="D126" s="45">
-        <v>800531</v>
+        <v>800907</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="86">
+      <c r="A127" s="69">
         <v>44317</v>
       </c>
       <c r="B127" s="46">
-        <v>259265</v>
+        <v>260083</v>
       </c>
       <c r="C127" s="46">
-        <v>76362</v>
+        <v>76368</v>
       </c>
       <c r="D127" s="46">
-        <v>335627</v>
+        <v>336451</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="85">
+      <c r="A128" s="68">
         <v>44318</v>
       </c>
       <c r="B128" s="45">
-        <v>195506</v>
+        <v>196312</v>
       </c>
       <c r="C128" s="45">
-        <v>67949</v>
+        <v>67961</v>
       </c>
       <c r="D128" s="45">
-        <v>263455</v>
+        <v>264273</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="86">
+      <c r="A129" s="69">
         <v>44319</v>
       </c>
       <c r="B129" s="46">
-        <v>334937</v>
+        <v>335015</v>
       </c>
       <c r="C129" s="46">
-        <v>115869</v>
+        <v>115873</v>
       </c>
       <c r="D129" s="46">
-        <v>450806</v>
+        <v>450888</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="85">
+      <c r="A130" s="68">
         <v>44320</v>
       </c>
       <c r="B130" s="45">
-        <v>679620</v>
+        <v>679726</v>
       </c>
       <c r="C130" s="45">
-        <v>162295</v>
+        <v>162331</v>
       </c>
       <c r="D130" s="45">
-        <v>841915</v>
+        <v>842057</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="86">
+      <c r="A131" s="69">
         <v>44321</v>
       </c>
       <c r="B131" s="46">
-        <v>909800</v>
+        <v>909926</v>
       </c>
       <c r="C131" s="46">
-        <v>227675</v>
+        <v>227834</v>
       </c>
       <c r="D131" s="46">
-        <v>1137475</v>
+        <v>1137760</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="85">
+      <c r="A132" s="68">
         <v>44322</v>
       </c>
       <c r="B132" s="45">
-        <v>761719</v>
+        <v>762910</v>
       </c>
       <c r="C132" s="45">
-        <v>219035</v>
+        <v>219232</v>
       </c>
       <c r="D132" s="45">
-        <v>980754</v>
+        <v>982142</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="86">
+      <c r="A133" s="69">
         <v>44323</v>
       </c>
       <c r="B133" s="46">
-        <v>646843</v>
+        <v>646970</v>
       </c>
       <c r="C133" s="46">
-        <v>231526</v>
+        <v>231624</v>
       </c>
       <c r="D133" s="46">
-        <v>878369</v>
+        <v>878594</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="85">
+      <c r="A134" s="68">
         <v>44324</v>
       </c>
       <c r="B134" s="45">
-        <v>271575</v>
+        <v>271904</v>
       </c>
       <c r="C134" s="45">
-        <v>154539</v>
+        <v>154677</v>
       </c>
       <c r="D134" s="45">
-        <v>426114</v>
+        <v>426581</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="86">
+      <c r="A135" s="69">
         <v>44325</v>
       </c>
       <c r="B135" s="46">
-        <v>183646</v>
+        <v>184019</v>
       </c>
       <c r="C135" s="46">
         <v>103476</v>
       </c>
       <c r="D135" s="46">
-        <v>287122</v>
+        <v>287495</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="85">
+      <c r="A136" s="68">
         <v>44326</v>
       </c>
       <c r="B136" s="45">
-        <v>392709</v>
+        <v>392870</v>
       </c>
       <c r="C136" s="45">
-        <v>192163</v>
+        <v>192283</v>
       </c>
       <c r="D136" s="45">
-        <v>584872</v>
+        <v>585153</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="86">
+      <c r="A137" s="69">
         <v>44327</v>
       </c>
       <c r="B137" s="46">
-        <v>794643</v>
+        <v>794803</v>
       </c>
       <c r="C137" s="46">
-        <v>284152</v>
+        <v>284395</v>
       </c>
       <c r="D137" s="46">
-        <v>1078795</v>
+        <v>1079198</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="85">
+      <c r="A138" s="68">
         <v>44328</v>
       </c>
       <c r="B138" s="45">
-        <v>1043644</v>
+        <v>1043932</v>
       </c>
       <c r="C138" s="45">
-        <v>362061</v>
+        <v>362486</v>
       </c>
       <c r="D138" s="45">
-        <v>1405705</v>
+        <v>1406418</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="86">
+      <c r="A139" s="69">
         <v>44329</v>
       </c>
       <c r="B139" s="46">
-        <v>266111</v>
+        <v>267223</v>
       </c>
       <c r="C139" s="46">
-        <v>158197</v>
+        <v>159358</v>
       </c>
       <c r="D139" s="46">
-        <v>424308</v>
+        <v>426581</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="85">
+      <c r="A140" s="68">
         <v>44330</v>
       </c>
       <c r="B140" s="45">
-        <v>524111</v>
+        <v>524294</v>
       </c>
       <c r="C140" s="45">
-        <v>229251</v>
+        <v>229511</v>
       </c>
       <c r="D140" s="45">
-        <v>753362</v>
+        <v>753805</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="86">
+      <c r="A141" s="69">
         <v>44331</v>
       </c>
       <c r="B141" s="46">
-        <v>233073</v>
+        <v>234100</v>
       </c>
       <c r="C141" s="46">
-        <v>164499</v>
+        <v>164801</v>
       </c>
       <c r="D141" s="46">
-        <v>397572</v>
+        <v>398901</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="85">
+      <c r="A142" s="68">
         <v>44332</v>
       </c>
       <c r="B142" s="45">
-        <v>159701</v>
+        <v>160351</v>
       </c>
       <c r="C142" s="45">
-        <v>121699</v>
+        <v>121993</v>
       </c>
       <c r="D142" s="45">
-        <v>281400</v>
+        <v>282344</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="86">
+      <c r="A143" s="69">
         <v>44333</v>
       </c>
       <c r="B143" s="46">
-        <v>346935</v>
+        <v>347202</v>
       </c>
       <c r="C143" s="46">
-        <v>203441</v>
+        <v>203493</v>
       </c>
       <c r="D143" s="46">
-        <v>550376</v>
+        <v>550695</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="85">
+      <c r="A144" s="68">
         <v>44334</v>
       </c>
       <c r="B144" s="45">
-        <v>516793</v>
+        <v>517224</v>
       </c>
       <c r="C144" s="45">
-        <v>354491</v>
+        <v>354914</v>
       </c>
       <c r="D144" s="45">
-        <v>871284</v>
+        <v>872138</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="86">
+      <c r="A145" s="69">
         <v>44335</v>
       </c>
       <c r="B145" s="46">
-        <v>562503</v>
+        <v>563358</v>
       </c>
       <c r="C145" s="46">
-        <v>531117</v>
+        <v>531886</v>
       </c>
       <c r="D145" s="46">
-        <v>1093620</v>
+        <v>1095244</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="85">
+      <c r="A146" s="68">
         <v>44336</v>
       </c>
       <c r="B146" s="45">
-        <v>453119</v>
+        <v>453938</v>
       </c>
       <c r="C146" s="45">
-        <v>484280</v>
+        <v>486208</v>
       </c>
       <c r="D146" s="45">
-        <v>937399</v>
+        <v>940146</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="86">
+      <c r="A147" s="69">
         <v>44337</v>
       </c>
       <c r="B147" s="46">
-        <v>403726</v>
+        <v>404701</v>
       </c>
       <c r="C147" s="46">
-        <v>433699</v>
+        <v>435147</v>
       </c>
       <c r="D147" s="46">
-        <v>837425</v>
+        <v>839848</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="85">
+      <c r="A148" s="68">
         <v>44338</v>
       </c>
       <c r="B148" s="45">
-        <v>216616</v>
+        <v>216767</v>
       </c>
       <c r="C148" s="45">
-        <v>257044</v>
+        <v>257977</v>
       </c>
       <c r="D148" s="45">
-        <v>473660</v>
+        <v>474744</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="86">
+      <c r="A149" s="69">
         <v>44339</v>
       </c>
       <c r="B149" s="46">
-        <v>126942</v>
+        <v>127133</v>
       </c>
       <c r="C149" s="46">
-        <v>158661</v>
+        <v>159449</v>
       </c>
       <c r="D149" s="46">
-        <v>285603</v>
+        <v>286582</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="85">
+      <c r="A150" s="68">
         <v>44340</v>
       </c>
       <c r="B150" s="45">
-        <v>143425</v>
+        <v>143486</v>
       </c>
       <c r="C150" s="45">
-        <v>180172</v>
+        <v>180270</v>
       </c>
       <c r="D150" s="45">
-        <v>323597</v>
+        <v>323756</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="86">
+      <c r="A151" s="69">
         <v>44341</v>
       </c>
       <c r="B151" s="46">
-        <v>271717</v>
+        <v>272109</v>
       </c>
       <c r="C151" s="46">
-        <v>375089</v>
+        <v>376085</v>
       </c>
       <c r="D151" s="46">
-        <v>646806</v>
+        <v>648194</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="85">
+      <c r="A152" s="68">
         <v>44342</v>
       </c>
       <c r="B152" s="45">
-        <v>464145</v>
+        <v>464896</v>
       </c>
       <c r="C152" s="45">
-        <v>697017</v>
+        <v>699492</v>
       </c>
       <c r="D152" s="45">
-        <v>1161162</v>
+        <v>1164388</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="86">
+      <c r="A153" s="69">
         <v>44343</v>
       </c>
       <c r="B153" s="46">
-        <v>397961</v>
+        <v>400262</v>
       </c>
       <c r="C153" s="46">
-        <v>611632</v>
+        <v>621936</v>
       </c>
       <c r="D153" s="46">
-        <v>1009593</v>
+        <v>1022198</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="85">
+      <c r="A154" s="68">
         <v>44344</v>
       </c>
       <c r="B154" s="45">
-        <v>346971</v>
+        <v>351491</v>
       </c>
       <c r="C154" s="45">
-        <v>496639</v>
+        <v>514309</v>
       </c>
       <c r="D154" s="45">
-        <v>843610</v>
+        <v>865800</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="86">
+      <c r="A155" s="69">
         <v>44345</v>
       </c>
       <c r="B155" s="46">
-        <v>151946</v>
+        <v>153489</v>
       </c>
       <c r="C155" s="46">
-        <v>234573</v>
+        <v>243252</v>
       </c>
       <c r="D155" s="46">
-        <v>386519</v>
+        <v>396741</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="85">
+      <c r="A156" s="68">
         <v>44346</v>
       </c>
       <c r="B156" s="45">
-        <v>98780</v>
+        <v>100432</v>
       </c>
       <c r="C156" s="45">
-        <v>172147</v>
+        <v>178075</v>
       </c>
       <c r="D156" s="45">
-        <v>270927</v>
+        <v>278507</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="86"/>
-      <c r="B157" s="46"/>
-      <c r="C157" s="46"/>
-      <c r="D157" s="46"/>
+      <c r="A157" s="69">
+        <v>44347</v>
+      </c>
+      <c r="B157" s="46">
+        <v>173619</v>
+      </c>
+      <c r="C157" s="46">
+        <v>337478</v>
+      </c>
+      <c r="D157" s="46">
+        <v>511097</v>
+      </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="85" t="s">
+      <c r="A158" s="69"/>
+      <c r="B158" s="46"/>
+      <c r="C158" s="46"/>
+      <c r="D158" s="46"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B158" s="45">
-        <v>35325677</v>
-      </c>
-      <c r="C158" s="45">
-        <v>14615052</v>
-      </c>
-      <c r="D158" s="45">
-        <v>49940729</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="88"/>
-      <c r="B159" s="88"/>
-      <c r="C159" s="88"/>
-      <c r="D159" s="88"/>
+      <c r="B159" s="45">
+        <v>35531114</v>
+      </c>
+      <c r="C159" s="45">
+        <v>15009970</v>
+      </c>
+      <c r="D159" s="45">
+        <v>50541084</v>
+      </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="B160" s="88"/>
-      <c r="C160" s="88"/>
-      <c r="D160" s="88"/>
+      <c r="A160" s="71"/>
+      <c r="B160" s="71"/>
+      <c r="C160" s="71"/>
+      <c r="D160" s="71"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B161" s="71"/>
+      <c r="C161" s="71"/>
+      <c r="D161" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
